--- a/epictrack-api/src/api/templates/event_templates/exemption_request/002_Exemption_Request.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/exemption_request/002_Exemption_Request.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\exemption_request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2396E5BE-CCD8-49D7-98E1-2CF85A84708D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC892CAA-6AA8-4C74-A878-A3933B2279F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phases" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="364">
   <si>
     <t>No</t>
   </si>
@@ -781,9 +781,6 @@
     <t>Process Planning</t>
   </si>
   <si>
-    <t>Assessment</t>
-  </si>
-  <si>
     <t>#043673</t>
   </si>
   <si>
@@ -1126,9 +1123,6 @@
     <t>[{"phase_name":"Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Fee Order: Submission of Exemption Request", "is_active": false }]</t>
   </si>
   <si>
-    <t>{"phase_name":"Revised DPD Development (Proponent Time)","work_type_id": 65 "ea_act_id": 3, "event_name": "Start of DPD Development", "start_at": 1 }</t>
-  </si>
-  <si>
     <t>Add PHASE "Revised DPD Development (Proponent Time)" (a renamed copy of original Exemption Order PHASE),Add PHASE "Readiness Decision" from workType EAC Assessment,Add PHASE "Process Planning" from workType EAC Assessment,Add PHASE "EAC Application Development (Proponent Time)" from workType EAC Assessment,Add PHASE "EAC Application Review" from workType EAC Assessment,Add PHASE "Revised EAC Application Development (Proponent Time)" from workType EAC Assessment,Add PHASE "Effects Assessment &amp; Recommendation" from workType EAC Assessment,Add PHASE "EAC Decision" from workType EAC Assessment</t>
   </si>
   <si>
@@ -1145,18 +1139,28 @@
   </si>
   <si>
     <t>[{"phase_name":"Further Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Last Day of Further Readiness Decision", "start_at": 7 }]</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Pre-EA (Exemption Request)","work_type_id": 5, "ea_act_id": 3, "event_name": "IPD/EP Approval Decision (Day Zero)"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1318,7 +1322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1335,14 +1339,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1351,7 +1355,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1363,13 +1367,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1378,20 +1382,20 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1400,31 +1404,31 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1437,7 +1441,10 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6716,10 +6723,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6985,11 +6992,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -7214,7 +7221,7 @@
         <v>242</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>11</v>
@@ -7226,7 +7233,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>23</v>
@@ -7240,10 +7247,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>11</v>
@@ -7269,10 +7276,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>11</v>
@@ -7284,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>23</v>
@@ -7298,10 +7305,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>11</v>
@@ -7327,10 +7334,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>11</v>
@@ -7342,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>23</v>
@@ -7356,10 +7363,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>11</v>
@@ -7371,7 +7378,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>23</v>
@@ -7969,7 +7976,7 @@
           <x14:formula1>
             <xm:f>Lookups!$B$3:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C7</xm:sqref>
+          <xm:sqref>C2:C13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
@@ -7988,7 +7995,7 @@
   <dimension ref="A1:M335"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D131" sqref="D131"/>
@@ -13280,7 +13287,7 @@
         <v>6</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E131" s="4" t="str">
         <f>IF((C131=""),"",VLOOKUP(C131,Phases!$A$2:$B$7,2,FALSE))</f>
@@ -13442,7 +13449,7 @@
         <v>7</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E135" s="4" t="str">
         <f>IF((C135=""),"",VLOOKUP(C135,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13481,7 +13488,7 @@
         <v>7</v>
       </c>
       <c r="D136" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E136" s="4" t="str">
         <f>IF((C136=""),"",VLOOKUP(C136,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13523,7 +13530,7 @@
         <v>7</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E137" s="4" t="str">
         <f>IF((C137=""),"",VLOOKUP(C137,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13565,7 +13572,7 @@
         <v>7</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E138" s="4" t="str">
         <f>IF((C138=""),"",VLOOKUP(C138,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13604,7 +13611,7 @@
         <v>7</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E139" s="4" t="str">
         <f>IF((C139=""),"",VLOOKUP(C139,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13850,7 +13857,7 @@
         <v>7</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E145" s="4" t="str">
         <f>IF((C145=""),"",VLOOKUP(C145,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13889,7 +13896,7 @@
         <v>7</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E146" s="4" t="str">
         <f>IF((C146=""),"",VLOOKUP(C146,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -13931,7 +13938,7 @@
         <v>7</v>
       </c>
       <c r="D147" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E147" s="4" t="str">
         <f>IF((C147=""),"",VLOOKUP(C147,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14009,7 +14016,7 @@
         <v>7</v>
       </c>
       <c r="D149" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E149" s="4" t="str">
         <f>IF((C149=""),"",VLOOKUP(C149,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14048,7 +14055,7 @@
         <v>7</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E150" s="4" t="str">
         <f>IF((C150=""),"",VLOOKUP(C150,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14087,7 +14094,7 @@
         <v>7</v>
       </c>
       <c r="D151" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E151" s="4" t="str">
         <f>IF((C151=""),"",VLOOKUP(C151,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14780,7 +14787,7 @@
         <v>7</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E168" s="4" t="str">
         <f>IF((C168=""),"",VLOOKUP(C168,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14822,7 +14829,7 @@
         <v>7</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E169" s="4" t="str">
         <f>IF((C169=""),"",VLOOKUP(C169,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14864,7 +14871,7 @@
         <v>7</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E170" s="4" t="str">
         <f>IF((C170=""),"",VLOOKUP(C170,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14903,7 +14910,7 @@
         <v>7</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E171" s="4" t="str">
         <f>IF((C171=""),"",VLOOKUP(C171,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14945,7 +14952,7 @@
         <v>7</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E172" s="4" t="str">
         <f>IF((C172=""),"",VLOOKUP(C172,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -14987,7 +14994,7 @@
         <v>7</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E173" s="4" t="str">
         <f>IF((C173=""),"",VLOOKUP(C173,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15311,7 +15318,7 @@
         <v>7</v>
       </c>
       <c r="D181" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E181" s="4" t="str">
         <f>IF((C181=""),"",VLOOKUP(C181,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15353,7 +15360,7 @@
         <v>7</v>
       </c>
       <c r="D182" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E182" s="4" t="str">
         <f>IF((C182=""),"",VLOOKUP(C182,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15395,7 +15402,7 @@
         <v>7</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E183" s="4" t="str">
         <f>IF((C183=""),"",VLOOKUP(C183,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15434,7 +15441,7 @@
         <v>8</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E184" s="4" t="str">
         <f>IF((C184=""),"",VLOOKUP(C184,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15473,7 +15480,7 @@
         <v>8</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E185" s="4" t="str">
         <f>IF((C185=""),"",VLOOKUP(C185,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15515,7 +15522,7 @@
         <v>8</v>
       </c>
       <c r="D186" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E186" s="4" t="str">
         <f>IF((C186=""),"",VLOOKUP(C186,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15593,7 +15600,7 @@
         <v>8</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E188" s="4" t="str">
         <f>IF((C188=""),"",VLOOKUP(C188,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -15635,7 +15642,7 @@
         <v>8</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E189" s="4" t="str">
         <f>IF((C189=""),"",VLOOKUP(C189,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16163,7 +16170,7 @@
         <v>8</v>
       </c>
       <c r="D202" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E202" s="4" t="str">
         <f>IF((C202=""),"",VLOOKUP(C202,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16202,7 +16209,7 @@
         <v>9</v>
       </c>
       <c r="D203" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E203" s="4" t="str">
         <f>IF((C203=""),"",VLOOKUP(C203,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16244,7 +16251,7 @@
         <v>9</v>
       </c>
       <c r="D204" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E204" s="4" t="str">
         <f>IF((C204=""),"",VLOOKUP(C204,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16286,7 +16293,7 @@
         <v>9</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E205" s="4" t="str">
         <f>IF((C205=""),"",VLOOKUP(C205,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16532,7 +16539,7 @@
         <v>9</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E211" s="4" t="str">
         <f>IF((C211=""),"",VLOOKUP(C211,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16574,7 +16581,7 @@
         <v>9</v>
       </c>
       <c r="D212" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E212" s="4" t="str">
         <f>IF((C212=""),"",VLOOKUP(C212,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16613,7 +16620,7 @@
         <v>9</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E213" s="4" t="str">
         <f>IF((C213=""),"",VLOOKUP(C213,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16655,7 +16662,7 @@
         <v>9</v>
       </c>
       <c r="D214" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E214" s="4" t="str">
         <f>IF((C214=""),"",VLOOKUP(C214,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16733,7 +16740,7 @@
         <v>9</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E216" s="4" t="str">
         <f>IF((C216=""),"",VLOOKUP(C216,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -16775,7 +16782,7 @@
         <v>9</v>
       </c>
       <c r="D217" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E217" s="4" t="str">
         <f>IF((C217=""),"",VLOOKUP(C217,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -17468,7 +17475,7 @@
         <v>9</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E234" s="4" t="str">
         <f>IF((C234=""),"",VLOOKUP(C234,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -17510,7 +17517,7 @@
         <v>9</v>
       </c>
       <c r="D235" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E235" s="4" t="str">
         <f>IF((C235=""),"",VLOOKUP(C235,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -17552,7 +17559,7 @@
         <v>9</v>
       </c>
       <c r="D236" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E236" s="4" t="str">
         <f>IF((C236=""),"",VLOOKUP(C236,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -17591,7 +17598,7 @@
         <v>9</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E237" s="4" t="str">
         <f>IF((C237=""),"",VLOOKUP(C237,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -17633,7 +17640,7 @@
         <v>9</v>
       </c>
       <c r="D238" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E238" s="4" t="str">
         <f>IF((C238=""),"",VLOOKUP(C238,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -17675,7 +17682,7 @@
         <v>9</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E239" s="4" t="str">
         <f>IF((C239=""),"",VLOOKUP(C239,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -17999,7 +18006,7 @@
         <v>9</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E247" s="4" t="str">
         <f>IF((C247=""),"",VLOOKUP(C247,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -18041,7 +18048,7 @@
         <v>9</v>
       </c>
       <c r="D248" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E248" s="4" t="str">
         <f>IF((C248=""),"",VLOOKUP(C248,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -18083,7 +18090,7 @@
         <v>9</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E249" s="4" t="str">
         <f>IF((C249=""),"",VLOOKUP(C249,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -18122,7 +18129,7 @@
         <v>10</v>
       </c>
       <c r="D250" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E250" s="4" t="str">
         <f>IF((C250=""),"",VLOOKUP(C250,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -18161,7 +18168,7 @@
         <v>10</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E251" s="4" t="str">
         <f>IF((C251=""),"",VLOOKUP(C251,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -18200,7 +18207,7 @@
         <v>10</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E252" s="4" t="str">
         <f>IF((C252=""),"",VLOOKUP(C252,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -18242,7 +18249,7 @@
         <v>10</v>
       </c>
       <c r="D253" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E253" s="4" t="str">
         <f>IF((C253=""),"",VLOOKUP(C253,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -18320,7 +18327,7 @@
         <v>10</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E255" s="4" t="str">
         <f>IF((C255=""),"",VLOOKUP(C255,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -18362,7 +18369,7 @@
         <v>10</v>
       </c>
       <c r="D256" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E256" s="4" t="str">
         <f>IF((C256=""),"",VLOOKUP(C256,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -18890,7 +18897,7 @@
         <v>10</v>
       </c>
       <c r="D269" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E269" s="4" t="str">
         <f>IF((C269=""),"",VLOOKUP(C269,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -18929,7 +18936,7 @@
         <v>10</v>
       </c>
       <c r="D270" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E270" s="4" t="str">
         <f>IF((C270=""),"",VLOOKUP(C270,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -18968,7 +18975,7 @@
         <v>10</v>
       </c>
       <c r="D271" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E271" s="4" t="str">
         <f>IF((C271=""),"",VLOOKUP(C271,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -19007,7 +19014,7 @@
         <v>11</v>
       </c>
       <c r="D272" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E272" s="4" t="str">
         <f>IF((C272=""),"",VLOOKUP(C272,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -19049,7 +19056,7 @@
         <v>11</v>
       </c>
       <c r="D273" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E273" s="4" t="str">
         <f>IF((C273=""),"",VLOOKUP(C273,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -19091,7 +19098,7 @@
         <v>11</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E274" s="4" t="str">
         <f>IF((C274=""),"",VLOOKUP(C274,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -19130,7 +19137,7 @@
         <v>11</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E275" s="4" t="str">
         <f>IF((C275=""),"",VLOOKUP(C275,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -19376,7 +19383,7 @@
         <v>11</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E281" s="4" t="str">
         <f>IF((C281=""),"",VLOOKUP(C281,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -19418,7 +19425,7 @@
         <v>11</v>
       </c>
       <c r="D282" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E282" s="4" t="str">
         <f>IF((C282=""),"",VLOOKUP(C282,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -19496,7 +19503,7 @@
         <v>11</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E284" s="4" t="str">
         <f>IF((C284=""),"",VLOOKUP(C284,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -19538,7 +19545,7 @@
         <v>11</v>
       </c>
       <c r="D285" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E285" s="4" t="str">
         <f>IF((C285=""),"",VLOOKUP(C285,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -20231,7 +20238,7 @@
         <v>11</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E302" s="4" t="str">
         <f>IF((C302=""),"",VLOOKUP(C302,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -20273,7 +20280,7 @@
         <v>11</v>
       </c>
       <c r="D303" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E303" s="4" t="str">
         <f>IF((C303=""),"",VLOOKUP(C303,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -20315,7 +20322,7 @@
         <v>11</v>
       </c>
       <c r="D304" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E304" s="4" t="str">
         <f>IF((C304=""),"",VLOOKUP(C304,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -20354,7 +20361,7 @@
         <v>11</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E305" s="4" t="str">
         <f>IF((C305=""),"",VLOOKUP(C305,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -20396,7 +20403,7 @@
         <v>11</v>
       </c>
       <c r="D306" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E306" s="4" t="str">
         <f>IF((C306=""),"",VLOOKUP(C306,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -20438,7 +20445,7 @@
         <v>11</v>
       </c>
       <c r="D307" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E307" s="4" t="str">
         <f>IF((C307=""),"",VLOOKUP(C307,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -20801,7 +20808,7 @@
         <v>11</v>
       </c>
       <c r="D316" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E316" s="4" t="str">
         <f>IF((C316=""),"",VLOOKUP(C316,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -20843,7 +20850,7 @@
         <v>11</v>
       </c>
       <c r="D317" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E317" s="4" t="str">
         <f>IF((C317=""),"",VLOOKUP(C317,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -20882,7 +20889,7 @@
         <v>12</v>
       </c>
       <c r="D318" s="33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E318" s="4" t="str">
         <f>IF((C318=""),"",VLOOKUP(C318,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -20960,7 +20967,7 @@
         <v>12</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E320" s="4" t="str">
         <f>IF((C320=""),"",VLOOKUP(C320,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -21122,7 +21129,7 @@
         <v>12</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E324" s="4" t="str">
         <f>IF((C324=""),"",VLOOKUP(C324,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -21164,7 +21171,7 @@
         <v>12</v>
       </c>
       <c r="D325" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E325" s="4" t="str">
         <f>IF((C325=""),"",VLOOKUP(C325,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -21206,7 +21213,7 @@
         <v>12</v>
       </c>
       <c r="D326" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E326" s="4" t="str">
         <f>IF((C326=""),"",VLOOKUP(C326,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -21245,7 +21252,7 @@
         <v>12</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E327" s="4" t="str">
         <f>IF((C327=""),"",VLOOKUP(C327,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -21287,7 +21294,7 @@
         <v>12</v>
       </c>
       <c r="D328" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E328" s="4" t="str">
         <f>IF((C328=""),"",VLOOKUP(C328,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -21329,7 +21336,7 @@
         <v>12</v>
       </c>
       <c r="D329" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E329" s="4" t="str">
         <f>IF((C329=""),"",VLOOKUP(C329,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -21530,7 +21537,7 @@
         <v>12</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E334" s="4" t="str">
         <f>IF((C334=""),"",VLOOKUP(C334,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -21572,7 +21579,7 @@
         <v>12</v>
       </c>
       <c r="D335" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E335" s="4" t="str">
         <f>IF((C335=""),"",VLOOKUP(C335,[1]Phases!$A$2:$B$13,2,FALSE))</f>
@@ -22230,7 +22237,7 @@
         <v>Federal Involvement Determination</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E31" s="2">
         <v>36</v>
@@ -22248,7 +22255,7 @@
         <v>Federal Involvement Determination</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E32" s="2">
         <v>37</v>
@@ -22266,7 +22273,7 @@
         <v>Federal Involvement Determination</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E33" s="2">
         <v>38</v>
@@ -22302,7 +22309,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E35" s="2">
         <v>40</v>
@@ -22320,7 +22327,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E36" s="2">
         <v>41</v>
@@ -22338,7 +22345,7 @@
         <v>Process Order Issued &amp; Regulatory Coordination Plan Posted</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E37" s="2">
         <v>42</v>
@@ -22410,7 +22417,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E41" s="2">
         <v>46</v>
@@ -22428,7 +22435,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E42" s="2">
         <v>47</v>
@@ -22464,7 +22471,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E44" s="2">
         <v>49</v>
@@ -22482,7 +22489,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E45" s="2">
         <v>50</v>
@@ -22500,7 +22507,7 @@
         <v>Notice to Proponent to Prepare Revised EAC Application</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E46" s="2">
         <v>51</v>
@@ -22572,7 +22579,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E50" s="2">
         <v>55</v>
@@ -22590,7 +22597,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E51" s="2">
         <v>56</v>
@@ -22608,7 +22615,7 @@
         <v>Revised EAC Application Acceptance Decision (Day Zero)</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E52" s="2">
         <v>57</v>
@@ -22626,7 +22633,7 @@
         <v>Revised EAC Application Acceptance Decision (Day Zero)</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E53" s="2">
         <v>58</v>
@@ -22662,7 +22669,7 @@
         <v>EAC Assessment Terminated s.39(d)</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E55" s="2">
         <v>60</v>
@@ -22680,7 +22687,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E56" s="2">
         <v>61</v>
@@ -22698,7 +22705,7 @@
         <v>EAC Referral Package sent to Ministers</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E57" s="2">
         <v>62</v>
@@ -22716,7 +22723,7 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E58" s="2">
         <v>63</v>
@@ -22734,7 +22741,7 @@
         <v>EAC Ministers Decision</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E59" s="2">
         <v>64</v>
@@ -22752,7 +22759,7 @@
         <v>EAC Ministers Decision</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E60" s="2">
         <v>65</v>
@@ -22780,11 +22787,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F69" sqref="F69"/>
+      <selection pane="bottomRight" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -22840,7 +22847,7 @@
         <v>170</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -22864,7 +22871,7 @@
         <v>170</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G3" s="2">
         <v>2</v>
@@ -22888,7 +22895,7 @@
         <v>172</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G4" s="2">
         <v>3</v>
@@ -22912,7 +22919,7 @@
         <v>174</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G5" s="2">
         <v>4</v>
@@ -22936,7 +22943,7 @@
         <v>176</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G6" s="2">
         <v>5</v>
@@ -22960,7 +22967,7 @@
         <v>178</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G7" s="2">
         <v>6</v>
@@ -22984,7 +22991,7 @@
         <v>180</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G8" s="2">
         <v>7</v>
@@ -23008,7 +23015,7 @@
         <v>181</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G9" s="2">
         <v>8</v>
@@ -23029,10 +23036,10 @@
         <v>182</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G10" s="2">
         <v>9</v>
@@ -23053,7 +23060,10 @@
         <v>183</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>362</v>
+        <v>360</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="G11" s="40">
         <v>11</v>
@@ -23077,7 +23087,7 @@
         <v>185</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G12" s="2">
         <v>12</v>
@@ -23101,7 +23111,7 @@
         <v>172</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G13" s="2">
         <v>13</v>
@@ -23125,7 +23135,7 @@
         <v>174</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G14" s="2">
         <v>14</v>
@@ -23149,7 +23159,7 @@
         <v>186</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G15" s="2">
         <v>15</v>
@@ -23173,7 +23183,7 @@
         <v>178</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G16" s="2">
         <v>16</v>
@@ -23197,7 +23207,7 @@
         <v>172</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G17" s="2">
         <v>17</v>
@@ -23221,7 +23231,7 @@
         <v>174</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G18" s="2">
         <v>18</v>
@@ -23245,7 +23255,7 @@
         <v>176</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G19" s="2">
         <v>19</v>
@@ -23269,7 +23279,7 @@
         <v>178</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G20" s="2">
         <v>20</v>
@@ -23293,7 +23303,7 @@
         <v>187</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G21" s="2">
         <v>21</v>
@@ -23317,7 +23327,7 @@
         <v>170</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G22" s="2">
         <v>22</v>
@@ -23341,7 +23351,7 @@
         <v>170</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G23" s="2">
         <v>23</v>
@@ -23365,7 +23375,7 @@
         <v>172</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G24" s="2">
         <v>24</v>
@@ -23389,7 +23399,7 @@
         <v>174</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G25" s="2">
         <v>25</v>
@@ -23413,7 +23423,7 @@
         <v>186</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G26" s="2">
         <v>26</v>
@@ -23437,7 +23447,7 @@
         <v>178</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G27" s="2">
         <v>27</v>
@@ -23461,7 +23471,7 @@
         <v>172</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G28" s="2">
         <v>28</v>
@@ -23485,7 +23495,7 @@
         <v>174</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G29" s="2">
         <v>29</v>
@@ -23509,7 +23519,7 @@
         <v>176</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G30" s="2">
         <v>30</v>
@@ -23533,7 +23543,7 @@
         <v>178</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G31" s="2">
         <v>31</v>
@@ -23557,7 +23567,7 @@
         <v>188</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G32" s="2">
         <v>32</v>
@@ -23578,10 +23588,10 @@
         <v>189</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="G33" s="2">
         <v>33</v>
@@ -23605,7 +23615,7 @@
         <v>192</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G34" s="2">
         <v>36</v>
@@ -23629,7 +23639,7 @@
         <v>193</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G35" s="2">
         <v>37</v>
@@ -23653,7 +23663,7 @@
         <v>170</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G36" s="2">
         <v>38</v>
@@ -23677,7 +23687,7 @@
         <v>185</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G37" s="2">
         <v>39</v>
@@ -23701,7 +23711,7 @@
         <v>172</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G38" s="2">
         <v>40</v>
@@ -23725,7 +23735,7 @@
         <v>174</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G39" s="2">
         <v>41</v>
@@ -23749,7 +23759,7 @@
         <v>186</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G40" s="2">
         <v>42</v>
@@ -23773,7 +23783,7 @@
         <v>178</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G41" s="2">
         <v>43</v>
@@ -23797,7 +23807,7 @@
         <v>172</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G42" s="2">
         <v>44</v>
@@ -23821,7 +23831,7 @@
         <v>174</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G43" s="2">
         <v>45</v>
@@ -23845,7 +23855,7 @@
         <v>176</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G44" s="2">
         <v>46</v>
@@ -23869,7 +23879,7 @@
         <v>178</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G45" s="2">
         <v>47</v>
@@ -23893,7 +23903,7 @@
         <v>194</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G46" s="2">
         <v>48</v>
@@ -23917,7 +23927,7 @@
         <v>172</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G47" s="2">
         <v>49</v>
@@ -23941,7 +23951,7 @@
         <v>174</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G48" s="2">
         <v>50</v>
@@ -23965,7 +23975,7 @@
         <v>176</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G49" s="2">
         <v>51</v>
@@ -23989,7 +23999,7 @@
         <v>178</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G50" s="2">
         <v>52</v>
@@ -24013,7 +24023,7 @@
         <v>195</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G51" s="2">
         <v>53</v>
@@ -24037,7 +24047,7 @@
         <v>197</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G52" s="2">
         <v>54</v>
@@ -24061,7 +24071,7 @@
         <v>198</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G53" s="2">
         <v>55</v>
@@ -24085,7 +24095,7 @@
         <v>199</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G54" s="2">
         <v>56</v>
@@ -24109,7 +24119,7 @@
         <v>185</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G55" s="2">
         <v>57</v>
@@ -24133,7 +24143,7 @@
         <v>172</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G56" s="2">
         <v>58</v>
@@ -24157,7 +24167,7 @@
         <v>174</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G57" s="2">
         <v>59</v>
@@ -24181,7 +24191,7 @@
         <v>186</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G58" s="2">
         <v>60</v>
@@ -24205,7 +24215,7 @@
         <v>178</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G59" s="2">
         <v>61</v>
@@ -24229,7 +24239,7 @@
         <v>172</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G60" s="2">
         <v>62</v>
@@ -24253,7 +24263,7 @@
         <v>174</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G61" s="2">
         <v>63</v>
@@ -24277,7 +24287,7 @@
         <v>176</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G62" s="2">
         <v>64</v>
@@ -24301,7 +24311,7 @@
         <v>178</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G63" s="2">
         <v>65</v>
@@ -24322,10 +24332,10 @@
         <v>189</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F64" s="30" t="s">
         <v>351</v>
-      </c>
-      <c r="F64" s="30" t="s">
-        <v>352</v>
       </c>
       <c r="G64" s="2">
         <v>66</v>
@@ -24348,8 +24358,8 @@
       <c r="E65" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F65" s="30" t="s">
-        <v>358</v>
+      <c r="F65" s="43" t="s">
+        <v>352</v>
       </c>
       <c r="G65" s="2">
         <v>69</v>
@@ -24370,10 +24380,10 @@
         <v>189</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G66" s="2">
         <v>70</v>
@@ -24397,7 +24407,7 @@
         <v>190</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G67" s="2">
         <v>78</v>
@@ -24421,7 +24431,7 @@
         <v>192</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G68" s="2">
         <v>79</v>
@@ -24445,7 +24455,7 @@
         <v>201</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G69" s="38">
         <v>80</v>
@@ -24469,7 +24479,7 @@
         <v>200</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G70" s="2">
         <v>82</v>
@@ -24493,7 +24503,7 @@
         <v>202</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G71" s="2">
         <v>88</v>
@@ -24514,10 +24524,10 @@
         <v>226</v>
       </c>
       <c r="E72" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="G72" s="2">
         <v>96</v>
@@ -24538,10 +24548,10 @@
         <v>226</v>
       </c>
       <c r="E73" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="G73" s="2">
         <v>97</v>
@@ -24565,7 +24575,7 @@
         <v>202</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G74" s="2">
         <v>98</v>
@@ -24589,7 +24599,7 @@
         <v>185</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G75" s="2">
         <v>99</v>
@@ -24613,7 +24623,7 @@
         <v>172</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G76" s="2">
         <v>100</v>
@@ -24637,7 +24647,7 @@
         <v>174</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G77" s="2">
         <v>101</v>
@@ -24661,7 +24671,7 @@
         <v>186</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G78" s="2">
         <v>102</v>
@@ -24685,7 +24695,7 @@
         <v>178</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G79" s="2">
         <v>103</v>
@@ -24709,7 +24719,7 @@
         <v>172</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G80" s="2">
         <v>104</v>
@@ -24733,7 +24743,7 @@
         <v>174</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G81" s="2">
         <v>105</v>
@@ -24757,7 +24767,7 @@
         <v>176</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G82" s="2">
         <v>106</v>
@@ -24781,7 +24791,7 @@
         <v>178</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G83" s="2">
         <v>107</v>
@@ -24802,10 +24812,10 @@
         <v>191</v>
       </c>
       <c r="E84" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="F84" s="30" t="s">
         <v>331</v>
-      </c>
-      <c r="F84" s="30" t="s">
-        <v>332</v>
       </c>
       <c r="G84" s="2">
         <v>108</v>
@@ -24829,7 +24839,7 @@
         <v>170</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G85" s="2">
         <v>109</v>
@@ -24853,7 +24863,7 @@
         <v>170</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G86" s="2">
         <v>110</v>
@@ -24877,7 +24887,7 @@
         <v>185</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G87" s="2">
         <v>111</v>
@@ -24901,7 +24911,7 @@
         <v>172</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G88" s="2">
         <v>112</v>
@@ -24925,7 +24935,7 @@
         <v>174</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G89" s="2">
         <v>113</v>
@@ -24949,7 +24959,7 @@
         <v>186</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G90" s="2">
         <v>114</v>
@@ -24973,7 +24983,7 @@
         <v>178</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G91" s="2">
         <v>115</v>
@@ -24997,7 +25007,7 @@
         <v>172</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G92" s="2">
         <v>116</v>
@@ -25021,7 +25031,7 @@
         <v>174</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G93" s="2">
         <v>117</v>
@@ -25045,7 +25055,7 @@
         <v>176</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G94" s="2">
         <v>118</v>
@@ -25069,7 +25079,7 @@
         <v>178</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G95" s="2">
         <v>119</v>
@@ -25093,7 +25103,7 @@
         <v>185</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G96" s="2">
         <v>120</v>
@@ -25117,7 +25127,7 @@
         <v>172</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G97" s="2">
         <v>121</v>
@@ -25141,7 +25151,7 @@
         <v>174</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G98" s="2">
         <v>122</v>
@@ -25165,7 +25175,7 @@
         <v>186</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G99" s="2">
         <v>123</v>
@@ -25189,7 +25199,7 @@
         <v>178</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G100" s="2">
         <v>124</v>
@@ -25213,7 +25223,7 @@
         <v>172</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G101" s="2">
         <v>125</v>
@@ -25237,7 +25247,7 @@
         <v>174</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G102" s="2">
         <v>126</v>
@@ -25261,7 +25271,7 @@
         <v>176</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G103" s="2">
         <v>127</v>
@@ -25285,7 +25295,7 @@
         <v>178</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G104" s="2">
         <v>128</v>
@@ -25306,10 +25316,10 @@
         <v>191</v>
       </c>
       <c r="E105" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="F105" s="30" t="s">
         <v>333</v>
-      </c>
-      <c r="F105" s="30" t="s">
-        <v>334</v>
       </c>
       <c r="G105" s="2">
         <v>129</v>
@@ -25333,7 +25343,7 @@
         <v>170</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G106" s="2">
         <v>130</v>
@@ -25357,7 +25367,7 @@
         <v>170</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G107" s="2">
         <v>131</v>
@@ -25381,7 +25391,7 @@
         <v>185</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G108" s="2">
         <v>132</v>
@@ -25405,7 +25415,7 @@
         <v>172</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G109" s="2">
         <v>133</v>
@@ -25429,7 +25439,7 @@
         <v>174</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G110" s="2">
         <v>134</v>
@@ -25453,7 +25463,7 @@
         <v>186</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G111" s="2">
         <v>135</v>
@@ -25477,7 +25487,7 @@
         <v>178</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G112" s="2">
         <v>136</v>
@@ -25501,7 +25511,7 @@
         <v>172</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G113" s="2">
         <v>137</v>
@@ -25525,7 +25535,7 @@
         <v>174</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G114" s="2">
         <v>138</v>
@@ -25549,7 +25559,7 @@
         <v>176</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G115" s="2">
         <v>139</v>
@@ -25573,7 +25583,7 @@
         <v>178</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G116" s="2">
         <v>140</v>
@@ -25594,10 +25604,10 @@
         <v>191</v>
       </c>
       <c r="E117" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="F117" s="30" t="s">
         <v>335</v>
-      </c>
-      <c r="F117" s="30" t="s">
-        <v>336</v>
       </c>
       <c r="G117" s="2">
         <v>141</v>
@@ -25618,10 +25628,10 @@
         <v>182</v>
       </c>
       <c r="E118" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="G118" s="2">
         <v>142</v>
@@ -25642,10 +25652,10 @@
         <v>183</v>
       </c>
       <c r="E119" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="G119" s="2">
         <v>143</v>
@@ -25669,7 +25679,7 @@
         <v>185</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G120" s="2">
         <v>144</v>
@@ -25693,7 +25703,7 @@
         <v>172</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G121" s="2">
         <v>145</v>
@@ -25717,7 +25727,7 @@
         <v>174</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G122" s="2">
         <v>146</v>
@@ -25741,7 +25751,7 @@
         <v>186</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G123" s="2">
         <v>147</v>
@@ -25765,7 +25775,7 @@
         <v>178</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G124" s="2">
         <v>148</v>
@@ -25789,7 +25799,7 @@
         <v>172</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G125" s="2">
         <v>149</v>
@@ -25813,7 +25823,7 @@
         <v>174</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G126" s="2">
         <v>150</v>
@@ -25837,7 +25847,7 @@
         <v>176</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G127" s="2">
         <v>151</v>
@@ -25861,7 +25871,7 @@
         <v>178</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G128" s="2">
         <v>152</v>
@@ -25882,10 +25892,10 @@
         <v>191</v>
       </c>
       <c r="E129" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="F129" s="30" t="s">
         <v>341</v>
-      </c>
-      <c r="F129" s="30" t="s">
-        <v>342</v>
       </c>
       <c r="G129" s="2">
         <v>153</v>
@@ -25909,7 +25919,7 @@
         <v>172</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G130" s="2">
         <v>154</v>
@@ -25933,7 +25943,7 @@
         <v>174</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G131" s="2">
         <v>155</v>
@@ -25957,7 +25967,7 @@
         <v>176</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G132" s="2">
         <v>156</v>
@@ -25981,7 +25991,7 @@
         <v>178</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G133" s="2">
         <v>157</v>
@@ -26005,7 +26015,7 @@
         <v>195</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G134" s="2">
         <v>158</v>
@@ -26029,7 +26039,7 @@
         <v>197</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G135" s="2">
         <v>159</v>
@@ -26053,7 +26063,7 @@
         <v>195</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G136" s="2">
         <v>160</v>
@@ -26077,7 +26087,7 @@
         <v>178</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G137" s="2">
         <v>161</v>
@@ -27780,14 +27790,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28020,21 +28028,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1383CF79-2DB2-40C6-9ED2-5A25DF7BC797}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D293B7-B48B-419C-B420-25F67C616F6F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
-    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28059,9 +28066,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D293B7-B48B-419C-B420-25F67C616F6F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1383CF79-2DB2-40C6-9ED2-5A25DF7BC797}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
+    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/epictrack-api/src/api/templates/event_templates/exemption_request/002_Exemption_Request.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/exemption_request/002_Exemption_Request.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\exemption_request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC892CAA-6AA8-4C74-A878-A3933B2279F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BD7687-9093-445A-9DAD-3822919D9609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phases" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="365">
   <si>
     <t>No</t>
   </si>
@@ -1087,21 +1087,12 @@
     <t>{"start_date_locked": true}</t>
   </si>
   <si>
-    <t>[{"phase_name":"Pre-EA (Exemption Request)","work_type_id": 5, "ea_act_id": 3, "event_name": "Submission of IPD/EP for CEAO Approval", "start_at": 28 },{"phase_name":"Pre-EA (EAC Assessment)","work_type_id": 6, "ea_act_id": 3, "event_name": "IPD/EP Approval Decision (Day Zero)", "start_at": 10 }]</t>
-  </si>
-  <si>
     <t>Add EVENT "Pre-EA (Exemption Request) | Submission of IPD/EP for CEAO Approval" at thisEvent ACTUAL +28  (a renamed copy of original EVENT), Add EVENT "Pre-EA (Exemption Request) | IPD/EP Approval Decision (Day Zero)" at thisEvent ACTUAL +38  (a renamed copy of original EVENT)</t>
   </si>
   <si>
-    <t>{"phase_name":"Early Engagement","work_type_id": 5, "ea_act_id": 3, "event_name": "Pre-EA (Exemption Request)", "start_at": 1 }</t>
-  </si>
-  <si>
     <t>{"phase_name":"DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Start of DPD Development", "start_at": 1 }</t>
   </si>
   <si>
-    <t>[{"phase_name":"Readiness Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "Exemption Request Package Referred to Minister", "is_active": false },{"phase_name":"Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Last Day of Readiness Decision (Exemption Request)", "is_active": false }]</t>
-  </si>
-  <si>
     <t>Add PHASE "Revised DPD Development (Proponent Time)" (a renamed copy of original PHASE),Add PHASE "Readiness Decision" (a copy of original PHASE)</t>
   </si>
   <si>
@@ -1142,6 +1133,18 @@
   </si>
   <si>
     <t>{"phase_name":"Pre-EA (Exemption Request)","work_type_id": 5, "ea_act_id": 3, "event_name": "IPD/EP Approval Decision (Day Zero)"}</t>
+  </si>
+  <si>
+    <t>TESTED</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Early Engagement","work_type_id": 5, "ea_act_id": 3, "event_name": "IPD/EP Approved (Day One)", "start_at": 1 }</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Pre-EA (Exemption Request)","work_type_id": 5, "ea_act_id": 3, "event_name": "Submission of IPD/EP for CEAO Approval", "start_at": 28 },{"phase_name":"Pre-EA (Exemption Request)","work_type_id": 6, "ea_act_id": 3, "event_name": "IPD/EP Approval Decision (Day Zero)", "start_at": 10 }]</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Exemption Request Package Referred to Minister", "is_active": false },{"phase_name":"Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Last Day of Readiness Decision (Exemption Request)", "is_active": false }]</t>
   </si>
 </sst>
 </file>
@@ -2941,6 +2944,7 @@
           <cell r="A108">
             <v>106</v>
           </cell>
+          <cell r="B108"/>
           <cell r="C108">
             <v>4</v>
           </cell>
@@ -2952,6 +2956,7 @@
           <cell r="A109">
             <v>107</v>
           </cell>
+          <cell r="B109"/>
           <cell r="C109">
             <v>4</v>
           </cell>
@@ -3237,6 +3242,7 @@
           <cell r="A133">
             <v>131</v>
           </cell>
+          <cell r="B133"/>
           <cell r="C133">
             <v>6</v>
           </cell>
@@ -6723,10 +6729,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6992,7 +6998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -7995,10 +8001,10 @@
   <dimension ref="A1:M335"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D131" sqref="D131"/>
+      <selection pane="bottomRight" activeCell="D101" sqref="D101:D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -10672,7 +10678,7 @@
         <v>35</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I66" s="11" t="b">
         <v>0</v>
@@ -13287,7 +13293,7 @@
         <v>6</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E131" s="4" t="str">
         <f>IF((C131=""),"",VLOOKUP(C131,Phases!$A$2:$B$7,2,FALSE))</f>
@@ -21668,13 +21674,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -21686,7 +21692,7 @@
     <col min="6" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1">
+    <row r="1" spans="1:6" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -21702,8 +21708,11 @@
       <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -21720,8 +21729,9 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="41"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -21739,7 +21749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -21757,7 +21767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -21774,8 +21784,9 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="41"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -21793,7 +21804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -21811,7 +21822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -21829,7 +21840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -21847,7 +21858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -21864,8 +21875,9 @@
       <c r="E10" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="41"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -21883,7 +21895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -21901,7 +21913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -21919,7 +21931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -21937,7 +21949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -21955,7 +21967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -21973,7 +21985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -21991,7 +22003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -22009,7 +22021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -22027,7 +22039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -22044,8 +22056,9 @@
       <c r="E20" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="41"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -22063,7 +22076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -22080,8 +22093,9 @@
       <c r="E22" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="41"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -22099,7 +22113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -22117,7 +22131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -22135,7 +22149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -22153,7 +22167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -22171,7 +22185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -22189,7 +22203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -22207,7 +22221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -22225,7 +22239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>36</v>
       </c>
@@ -22243,7 +22257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>37</v>
       </c>
@@ -22788,10 +22802,10 @@
   <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F65" sqref="F65"/>
+      <selection pane="bottomRight" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -22801,7 +22815,7 @@
     <col min="3" max="3" width="70.7265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="108.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.08984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.7265625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.90625" style="1"/>
   </cols>
@@ -23015,7 +23029,7 @@
         <v>181</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="G9" s="2">
         <v>8</v>
@@ -23036,10 +23050,10 @@
         <v>182</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="G10" s="2">
         <v>9</v>
@@ -23060,10 +23074,10 @@
         <v>183</v>
       </c>
       <c r="E11" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="G11" s="40">
         <v>11</v>
@@ -23303,7 +23317,7 @@
         <v>187</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G21" s="2">
         <v>21</v>
@@ -23567,7 +23581,7 @@
         <v>188</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="G32" s="2">
         <v>32</v>
@@ -23588,10 +23602,10 @@
         <v>189</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G33" s="2">
         <v>33</v>
@@ -23615,7 +23629,7 @@
         <v>192</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G34" s="2">
         <v>36</v>
@@ -23639,7 +23653,7 @@
         <v>193</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G35" s="2">
         <v>37</v>
@@ -23903,7 +23917,7 @@
         <v>194</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G46" s="2">
         <v>48</v>
@@ -24095,7 +24109,7 @@
         <v>199</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G54" s="2">
         <v>56</v>
@@ -24332,10 +24346,10 @@
         <v>189</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G64" s="2">
         <v>66</v>
@@ -24359,7 +24373,7 @@
         <v>192</v>
       </c>
       <c r="F65" s="43" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G65" s="2">
         <v>69</v>
@@ -24380,10 +24394,10 @@
         <v>189</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G66" s="2">
         <v>70</v>
@@ -24407,7 +24421,7 @@
         <v>190</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G67" s="2">
         <v>78</v>
@@ -24431,7 +24445,7 @@
         <v>192</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G68" s="2">
         <v>79</v>
@@ -24455,7 +24469,7 @@
         <v>201</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G69" s="38">
         <v>80</v>
@@ -24479,7 +24493,7 @@
         <v>200</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G70" s="2">
         <v>82</v>
@@ -26096,7 +26110,7 @@
   </sheetData>
   <autoFilter ref="A1:G137" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">

--- a/epictrack-api/src/api/templates/event_templates/exemption_request/002_Exemption_Request.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/exemption_request/002_Exemption_Request.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\exemption_request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BD7687-9093-445A-9DAD-3822919D9609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8EAE0B-7154-4928-B5D9-C38E73187ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="366">
   <si>
     <t>No</t>
   </si>
@@ -1045,39 +1045,21 @@
     <t>Set "EAC Application Development (Proponent Time)| Start of EAC Application Development" ANTICIPATED to thisEvent ACTUAL +1</t>
   </si>
   <si>
-    <t>{"phase_name":"EAC Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Start of EAC Application Development", "start_at": 1 }</t>
-  </si>
-  <si>
     <t>Set "Revised EAC Application Development (Proponent Time) | Start of Revised EAC Application Development" ANTICIPATED to thisEvent ACTUAL +1</t>
   </si>
   <si>
-    <t>{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Start of Revised EAC Application Development", "start_at": 1 }</t>
-  </si>
-  <si>
     <t>Set "Effects Assessment &amp; Recommendation | Start of Effects Assessment (Day One)" ANTICIPATED to thisEvent ACTUAL +1</t>
   </si>
   <si>
-    <t>{"phase_name":"Effects Assessment &amp; Recommendation","work_type_id": 6, "ea_act_id": 3, "event_name": "Start of Effects Assessment (Day One)", "start_at": 1 }</t>
-  </si>
-  <si>
     <t>Add EVENT "Revised EAC Application Development (Proponent Time) | Submission of Updated Revised EAC Application for Acceptance" at thisEvent ACTUAL +28  (a renamed copy of original EVENT),Add EVENT "Revised EAC Application Development (Proponent Time) | Updated Revised EAC Application Acceptance Decision (Day Zero)" at thisEvent ACTUAL +88  (a renamed copy of original EVENT)</t>
   </si>
   <si>
-    <t>[{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Submission of Revised EAC Application for CEAO Acceptance", "start_at": 28 },{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Revised EAC Application Acceptance Decision (Day Zero)", "start_at": 60 }]</t>
-  </si>
-  <si>
     <t>Set "Revised EAC Application Development (Proponent Time) | Updated Revised EAC Application Acceptance Decision (Day Zero)" to PHASE END EVENT</t>
   </si>
   <si>
-    <t>{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 6, "ea_act_id": 3, "event_name": "Revised EAC Application Acceptance Decision (Day Zero)"}</t>
-  </si>
-  <si>
     <t>Set "EAC Decision | EAC Referral Package Received by Ministers" ANTICIPATED to thisEvent ACTUAL +1</t>
   </si>
   <si>
-    <t>{"phase_name":"EAC Decision","work_type_id": 6, "ea_act_id": 3, "event_name": "EAC Referral Package Received by Ministers", "start_at": 1 }</t>
-  </si>
-  <si>
     <t>{"work_state": "COMPLETED"}</t>
   </si>
   <si>
@@ -1102,9 +1084,6 @@
     <t>{"phase_name":"Revised DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Start of DPD Development", "start_at": 1 }</t>
   </si>
   <si>
-    <t>{"phase_name":"Revised DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Start of DPD Development"}</t>
-  </si>
-  <si>
     <t>{"phase_name":"Exemption Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Exemption Request Package Received by Minister", "start_at": 1 }</t>
   </si>
   <si>
@@ -1141,22 +1120,53 @@
     <t>{"phase_name":"Early Engagement","work_type_id": 5, "ea_act_id": 3, "event_name": "IPD/EP Approved (Day One)", "start_at": 1 }</t>
   </si>
   <si>
-    <t>[{"phase_name":"Pre-EA (Exemption Request)","work_type_id": 5, "ea_act_id": 3, "event_name": "Submission of IPD/EP for CEAO Approval", "start_at": 28 },{"phase_name":"Pre-EA (Exemption Request)","work_type_id": 6, "ea_act_id": 3, "event_name": "IPD/EP Approval Decision (Day Zero)", "start_at": 10 }]</t>
-  </si>
-  <si>
     <t>[{"phase_name":"Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Exemption Request Package Referred to Minister", "is_active": false },{"phase_name":"Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Last Day of Readiness Decision (Exemption Request)", "is_active": false }]</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Pre-EA (Exemption Request)","work_type_id": 5, "ea_act_id": 3, "event_name": "Submission of IPD/EP for CEAO Approval", "start_at": 28 },{"phase_name":"Pre-EA (Exemption Request)","work_type_id": 5, "ea_act_id": 3, "event_name": "IPD/EP Approval Decision (Day Zero)", "start_at": 10 }]</t>
+  </si>
+  <si>
+    <t>{"phase_name":"EAC Application Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Start of EAC Application Development", "start_at": 1 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Start of Revised EAC Application Development", "start_at": 1 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Effects Assessment &amp; Recommendation","work_type_id": 5, "ea_act_id": 3, "event_name": "Start of Effects Assessment (Day One)", "start_at": 1 }</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Submission of Revised EAC Application for CEAO Acceptance", "start_at": 28 },{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Revised EAC Application Acceptance Decision (Day Zero)", "start_at": 60 }]</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Revised EAC Application Acceptance Decision (Day Zero)"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"EAC Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "EAC Referral Package Received by Ministers", "start_at": 1 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "CEAO's Readiness Decision (Exemption Request)"}</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Further Readiness Decision","work_type_id": 5, "ea_act_id": 3, "new_name": "Further Readiness Decision", "legislated": false }]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1325,7 +1335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1342,14 +1352,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1358,7 +1368,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1370,13 +1380,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1385,20 +1395,20 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1407,34 +1417,31 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1444,10 +1451,22 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2944,7 +2963,6 @@
           <cell r="A108">
             <v>106</v>
           </cell>
-          <cell r="B108"/>
           <cell r="C108">
             <v>4</v>
           </cell>
@@ -2956,7 +2974,6 @@
           <cell r="A109">
             <v>107</v>
           </cell>
-          <cell r="B109"/>
           <cell r="C109">
             <v>4</v>
           </cell>
@@ -3242,7 +3259,6 @@
           <cell r="A133">
             <v>131</v>
           </cell>
-          <cell r="B133"/>
           <cell r="C133">
             <v>6</v>
           </cell>
@@ -6729,10 +6745,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7002,7 +7018,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8:C13"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -8001,10 +8017,10 @@
   <dimension ref="A1:M335"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D101" sqref="D101:D118"/>
+      <selection pane="bottomRight" activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -13293,7 +13309,7 @@
         <v>6</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E131" s="4" t="str">
         <f>IF((C131=""),"",VLOOKUP(C131,Phases!$A$2:$B$7,2,FALSE))</f>
@@ -21677,10 +21693,10 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -21709,7 +21725,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -21729,7 +21745,7 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="41"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
@@ -21748,6 +21764,7 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
@@ -21784,7 +21801,7 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
@@ -21803,6 +21820,7 @@
       <c r="E6" s="2">
         <v>5</v>
       </c>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
@@ -21875,7 +21893,7 @@
       <c r="E10" s="2">
         <v>9</v>
       </c>
-      <c r="F10" s="41"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
@@ -21966,6 +21984,7 @@
       <c r="E15" s="2">
         <v>14</v>
       </c>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
@@ -22056,7 +22075,7 @@
       <c r="E20" s="2">
         <v>19</v>
       </c>
-      <c r="F20" s="41"/>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
@@ -22093,7 +22112,7 @@
       <c r="E22" s="2">
         <v>21</v>
       </c>
-      <c r="F22" s="41"/>
+      <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
@@ -22112,6 +22131,7 @@
       <c r="E23" s="2">
         <v>22</v>
       </c>
+      <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
@@ -22202,6 +22222,7 @@
       <c r="E28" s="2">
         <v>27</v>
       </c>
+      <c r="F28" s="40"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
@@ -22802,10 +22823,10 @@
   <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F52" sqref="F52"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -23005,7 +23026,7 @@
         <v>180</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G8" s="2">
         <v>7</v>
@@ -23029,7 +23050,7 @@
         <v>181</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G9" s="2">
         <v>8</v>
@@ -23050,36 +23071,36 @@
         <v>182</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G10" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="41" customFormat="1">
-      <c r="A11" s="40">
+    <row r="11" spans="1:7" s="40" customFormat="1">
+      <c r="A11" s="39">
         <v>11</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="39">
         <v>5</v>
       </c>
-      <c r="C11" s="41" t="str">
+      <c r="C11" s="40" t="str">
         <f>IF((B11=""),"",VLOOKUP(B11,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>CEAO Requires the Proponent to Submit a Revised IPD/EP - s.13(3)(b)</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="E11" s="42" t="s">
-        <v>357</v>
+      <c r="E11" s="41" t="s">
+        <v>350</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G11" s="40">
+        <v>353</v>
+      </c>
+      <c r="G11" s="39">
         <v>11</v>
       </c>
     </row>
@@ -23317,7 +23338,7 @@
         <v>187</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G21" s="2">
         <v>21</v>
@@ -23565,7 +23586,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32" s="3">
         <v>14</v>
@@ -23574,11 +23595,11 @@
         <f>IF((B32=""),"",VLOOKUP(B32,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>188</v>
+      <c r="D32" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>364</v>
@@ -23587,33 +23608,33 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2">
-        <v>33</v>
-      </c>
-      <c r="B33" s="3">
+    <row r="33" spans="1:7" s="44" customFormat="1">
+      <c r="A33" s="15">
+        <v>32</v>
+      </c>
+      <c r="B33" s="15">
         <v>14</v>
       </c>
-      <c r="C33" s="4" t="str">
+      <c r="C33" s="44" t="str">
         <f>IF((B33=""),"",VLOOKUP(B33,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="D33" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="G33" s="15">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3">
         <v>14</v>
@@ -23623,21 +23644,21 @@
         <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>192</v>
+        <v>341</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G34" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>14</v>
@@ -23647,16 +23668,16 @@
         <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G35" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -23680,7 +23701,7 @@
         <v>323</v>
       </c>
       <c r="G36" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -23704,7 +23725,7 @@
         <v>324</v>
       </c>
       <c r="G37" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -23728,7 +23749,7 @@
         <v>325</v>
       </c>
       <c r="G38" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -23752,7 +23773,7 @@
         <v>326</v>
       </c>
       <c r="G39" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -23776,7 +23797,7 @@
         <v>327</v>
       </c>
       <c r="G40" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -23800,7 +23821,7 @@
         <v>328</v>
       </c>
       <c r="G41" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -23824,7 +23845,7 @@
         <v>325</v>
       </c>
       <c r="G42" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -23848,7 +23869,7 @@
         <v>326</v>
       </c>
       <c r="G43" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -23872,7 +23893,7 @@
         <v>329</v>
       </c>
       <c r="G44" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -23896,7 +23917,7 @@
         <v>328</v>
       </c>
       <c r="G45" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -23917,10 +23938,10 @@
         <v>194</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G46" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -23944,7 +23965,7 @@
         <v>325</v>
       </c>
       <c r="G47" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -23968,7 +23989,7 @@
         <v>326</v>
       </c>
       <c r="G48" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -23992,7 +24013,7 @@
         <v>329</v>
       </c>
       <c r="G49" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -24016,7 +24037,7 @@
         <v>328</v>
       </c>
       <c r="G50" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -24037,10 +24058,10 @@
         <v>195</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G51" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -24061,10 +24082,10 @@
         <v>197</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G52" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -24079,16 +24100,16 @@
         <v>Refer the Project to the CEAO for Further Decision</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E53" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53" s="43" t="s">
         <v>198</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="G53" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -24109,10 +24130,10 @@
         <v>199</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G54" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -24136,7 +24157,7 @@
         <v>324</v>
       </c>
       <c r="G55" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -24160,7 +24181,7 @@
         <v>325</v>
       </c>
       <c r="G56" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -24184,7 +24205,7 @@
         <v>326</v>
       </c>
       <c r="G57" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -24208,7 +24229,7 @@
         <v>327</v>
       </c>
       <c r="G58" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -24232,7 +24253,7 @@
         <v>328</v>
       </c>
       <c r="G59" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -24256,7 +24277,7 @@
         <v>325</v>
       </c>
       <c r="G60" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -24280,7 +24301,7 @@
         <v>326</v>
       </c>
       <c r="G61" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -24304,7 +24325,7 @@
         <v>329</v>
       </c>
       <c r="G62" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -24328,7 +24349,7 @@
         <v>328</v>
       </c>
       <c r="G63" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -24346,13 +24367,13 @@
         <v>189</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F64" s="30" t="s">
-        <v>348</v>
+        <v>341</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>342</v>
       </c>
       <c r="G64" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -24372,11 +24393,11 @@
       <c r="E65" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F65" s="43" t="s">
-        <v>349</v>
+      <c r="F65" s="42" t="s">
+        <v>343</v>
       </c>
       <c r="G65" s="2">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -24394,13 +24415,13 @@
         <v>189</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G66" s="2">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -24415,16 +24436,16 @@
         <v>CEAO Requires the Proponent to Submit a Revised EAC Assessment DPD - s.16(2)(a)</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E67" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" s="43" t="s">
         <v>190</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G67" s="2">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -24445,13 +24466,13 @@
         <v>192</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G68" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="39" customFormat="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="38" customFormat="1">
       <c r="A69" s="2">
         <v>80</v>
       </c>
@@ -24469,10 +24490,10 @@
         <v>201</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G69" s="38">
-        <v>80</v>
+        <v>352</v>
+      </c>
+      <c r="G69" s="2">
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -24493,10 +24514,10 @@
         <v>200</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G70" s="2">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -24520,7 +24541,7 @@
         <v>323</v>
       </c>
       <c r="G71" s="2">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -24544,7 +24565,7 @@
         <v>320</v>
       </c>
       <c r="G72" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -24568,7 +24589,7 @@
         <v>322</v>
       </c>
       <c r="G73" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -24592,7 +24613,7 @@
         <v>323</v>
       </c>
       <c r="G74" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -24616,7 +24637,7 @@
         <v>324</v>
       </c>
       <c r="G75" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -24640,7 +24661,7 @@
         <v>325</v>
       </c>
       <c r="G76" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -24664,7 +24685,7 @@
         <v>326</v>
       </c>
       <c r="G77" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -24688,7 +24709,7 @@
         <v>327</v>
       </c>
       <c r="G78" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -24712,7 +24733,7 @@
         <v>328</v>
       </c>
       <c r="G79" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -24736,7 +24757,7 @@
         <v>325</v>
       </c>
       <c r="G80" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -24760,7 +24781,7 @@
         <v>326</v>
       </c>
       <c r="G81" s="2">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -24784,7 +24805,7 @@
         <v>329</v>
       </c>
       <c r="G82" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -24808,7 +24829,7 @@
         <v>328</v>
       </c>
       <c r="G83" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -24828,11 +24849,11 @@
       <c r="E84" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="F84" s="30" t="s">
-        <v>331</v>
+      <c r="F84" s="43" t="s">
+        <v>358</v>
       </c>
       <c r="G84" s="2">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -24856,7 +24877,7 @@
         <v>323</v>
       </c>
       <c r="G85" s="2">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -24880,7 +24901,7 @@
         <v>323</v>
       </c>
       <c r="G86" s="2">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -24904,7 +24925,7 @@
         <v>324</v>
       </c>
       <c r="G87" s="2">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -24928,7 +24949,7 @@
         <v>325</v>
       </c>
       <c r="G88" s="2">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -24952,7 +24973,7 @@
         <v>326</v>
       </c>
       <c r="G89" s="2">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -24976,7 +24997,7 @@
         <v>327</v>
       </c>
       <c r="G90" s="2">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -25000,7 +25021,7 @@
         <v>328</v>
       </c>
       <c r="G91" s="2">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -25024,7 +25045,7 @@
         <v>325</v>
       </c>
       <c r="G92" s="2">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -25048,7 +25069,7 @@
         <v>326</v>
       </c>
       <c r="G93" s="2">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -25072,7 +25093,7 @@
         <v>329</v>
       </c>
       <c r="G94" s="2">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -25096,7 +25117,7 @@
         <v>328</v>
       </c>
       <c r="G95" s="2">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -25120,7 +25141,7 @@
         <v>324</v>
       </c>
       <c r="G96" s="2">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -25144,7 +25165,7 @@
         <v>325</v>
       </c>
       <c r="G97" s="2">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -25168,7 +25189,7 @@
         <v>326</v>
       </c>
       <c r="G98" s="2">
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -25192,7 +25213,7 @@
         <v>327</v>
       </c>
       <c r="G99" s="2">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -25216,7 +25237,7 @@
         <v>328</v>
       </c>
       <c r="G100" s="2">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -25240,7 +25261,7 @@
         <v>325</v>
       </c>
       <c r="G101" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -25264,7 +25285,7 @@
         <v>326</v>
       </c>
       <c r="G102" s="2">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -25288,7 +25309,7 @@
         <v>329</v>
       </c>
       <c r="G103" s="2">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -25312,7 +25333,7 @@
         <v>328</v>
       </c>
       <c r="G104" s="2">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -25330,13 +25351,13 @@
         <v>191</v>
       </c>
       <c r="E105" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="F105" s="30" t="s">
-        <v>333</v>
+        <v>331</v>
+      </c>
+      <c r="F105" s="43" t="s">
+        <v>359</v>
       </c>
       <c r="G105" s="2">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -25360,7 +25381,7 @@
         <v>323</v>
       </c>
       <c r="G106" s="2">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -25384,7 +25405,7 @@
         <v>323</v>
       </c>
       <c r="G107" s="2">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -25408,7 +25429,7 @@
         <v>324</v>
       </c>
       <c r="G108" s="2">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -25432,7 +25453,7 @@
         <v>325</v>
       </c>
       <c r="G109" s="2">
-        <v>133</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -25456,7 +25477,7 @@
         <v>326</v>
       </c>
       <c r="G110" s="2">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -25480,7 +25501,7 @@
         <v>327</v>
       </c>
       <c r="G111" s="2">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -25504,7 +25525,7 @@
         <v>328</v>
       </c>
       <c r="G112" s="2">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -25528,7 +25549,7 @@
         <v>325</v>
       </c>
       <c r="G113" s="2">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -25552,7 +25573,7 @@
         <v>326</v>
       </c>
       <c r="G114" s="2">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -25576,7 +25597,7 @@
         <v>329</v>
       </c>
       <c r="G115" s="2">
-        <v>139</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -25600,7 +25621,7 @@
         <v>328</v>
       </c>
       <c r="G116" s="2">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -25618,13 +25639,13 @@
         <v>191</v>
       </c>
       <c r="E117" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="F117" s="30" t="s">
-        <v>335</v>
+        <v>332</v>
+      </c>
+      <c r="F117" s="43" t="s">
+        <v>360</v>
       </c>
       <c r="G117" s="2">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -25642,13 +25663,13 @@
         <v>182</v>
       </c>
       <c r="E118" s="30" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="G118" s="2">
-        <v>142</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -25666,13 +25687,13 @@
         <v>183</v>
       </c>
       <c r="E119" s="30" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="G119" s="2">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -25696,7 +25717,7 @@
         <v>324</v>
       </c>
       <c r="G120" s="2">
-        <v>144</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -25720,7 +25741,7 @@
         <v>325</v>
       </c>
       <c r="G121" s="2">
-        <v>145</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -25744,7 +25765,7 @@
         <v>326</v>
       </c>
       <c r="G122" s="2">
-        <v>146</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -25768,7 +25789,7 @@
         <v>327</v>
       </c>
       <c r="G123" s="2">
-        <v>147</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -25792,7 +25813,7 @@
         <v>328</v>
       </c>
       <c r="G124" s="2">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -25816,7 +25837,7 @@
         <v>325</v>
       </c>
       <c r="G125" s="2">
-        <v>149</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -25840,7 +25861,7 @@
         <v>326</v>
       </c>
       <c r="G126" s="2">
-        <v>150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -25864,7 +25885,7 @@
         <v>329</v>
       </c>
       <c r="G127" s="2">
-        <v>151</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -25888,7 +25909,7 @@
         <v>328</v>
       </c>
       <c r="G128" s="2">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -25906,13 +25927,13 @@
         <v>191</v>
       </c>
       <c r="E129" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="F129" s="30" t="s">
-        <v>341</v>
+        <v>335</v>
+      </c>
+      <c r="F129" s="43" t="s">
+        <v>363</v>
       </c>
       <c r="G129" s="2">
-        <v>153</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -25936,7 +25957,7 @@
         <v>325</v>
       </c>
       <c r="G130" s="2">
-        <v>154</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -25960,7 +25981,7 @@
         <v>326</v>
       </c>
       <c r="G131" s="2">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -25984,7 +26005,7 @@
         <v>329</v>
       </c>
       <c r="G132" s="2">
-        <v>156</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -26008,7 +26029,7 @@
         <v>328</v>
       </c>
       <c r="G133" s="2">
-        <v>157</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -26029,10 +26050,10 @@
         <v>195</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G134" s="2">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -26053,10 +26074,10 @@
         <v>197</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G135" s="2">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -26077,10 +26098,10 @@
         <v>195</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G136" s="2">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -26104,7 +26125,7 @@
         <v>328</v>
       </c>
       <c r="G137" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -26118,7 +26139,7 @@
           <x14:formula1>
             <xm:f>Lookups!$U$3:$U$16</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D50 D55:D71</xm:sqref>
+          <xm:sqref>D55:D71 D2:D50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
@@ -27804,12 +27825,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28042,20 +28065,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D293B7-B48B-419C-B420-25F67C616F6F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1383CF79-2DB2-40C6-9ED2-5A25DF7BC797}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
+    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28080,12 +28104,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1383CF79-2DB2-40C6-9ED2-5A25DF7BC797}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D293B7-B48B-419C-B420-25F67C616F6F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
-    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/epictrack-api/src/api/templates/event_templates/exemption_request/002_Exemption_Request.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/exemption_request/002_Exemption_Request.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\exemption_request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8EAE0B-7154-4928-B5D9-C38E73187ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90FA236-4C7A-417D-9814-D7DCC88FA611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Actions!$A$1:$G$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Actions!$A$1:$G$158</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Events!$A$1:$M$335</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outcomes!$A$1:$E$15</definedName>
   </definedNames>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="387">
   <si>
     <t>No</t>
   </si>
@@ -1148,18 +1148,88 @@
   </si>
   <si>
     <t>[{"phase_name":"Further Readiness Decision","work_type_id": 5, "ea_act_id": 3, "new_name": "Further Readiness Decision", "legislated": false }]</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Pre-EA (Exemption Request)","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Early Engagement","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Early Engagement","work_type_id": 5, "ea_act_id": 3, "event_name": "Exemption Request Terminated s.39(d)"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Exemption Request Terminated s.39(d)"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Exemption Request Terminated s.39(d)"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Exemption Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Further Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Further Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "EAC Assessment Terminated s.39(d)"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Process Planning","work_type_id": 5, "ea_act_id": 3, "event_name": "EAC Assessment Terminated s.39(d)"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Process Planning","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"EAC Application Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"EAC Application Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "EAC Assessment Terminated s.39(d)"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"EAC Application Review","work_type_id": 5, "ea_act_id": 3, "event_name": "EAC Assessment Terminated s.39(d)"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"EAC Application Review","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "EAC Assessment Terminated s.39(d)"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Effects Assessment &amp; Recommendation","work_type_id": 5, "ea_act_id": 3, "event_name": "EAC Assessment Terminated s.39(d)"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Effects Assessment &amp; Recommendation","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"EAC Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1352,14 +1422,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1368,7 +1438,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1380,13 +1450,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1395,20 +1465,20 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1417,31 +1487,30 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1451,24 +1520,25 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2963,6 +3033,7 @@
           <cell r="A108">
             <v>106</v>
           </cell>
+          <cell r="B108"/>
           <cell r="C108">
             <v>4</v>
           </cell>
@@ -2974,6 +3045,7 @@
           <cell r="A109">
             <v>107</v>
           </cell>
+          <cell r="B109"/>
           <cell r="C109">
             <v>4</v>
           </cell>
@@ -3259,6 +3331,7 @@
           <cell r="A133">
             <v>131</v>
           </cell>
+          <cell r="B133"/>
           <cell r="C133">
             <v>6</v>
           </cell>
@@ -6745,10 +6818,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7018,7 +7091,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -7065,7 +7138,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="46" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -8017,10 +8090,10 @@
   <dimension ref="A1:M335"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A132" sqref="A132"/>
+      <selection pane="bottomRight" activeCell="D330" sqref="D330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -21693,10 +21766,10 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -21745,7 +21818,7 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
@@ -21764,7 +21837,7 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="40"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
@@ -21783,6 +21856,7 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
@@ -21801,7 +21875,7 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="40"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
@@ -21820,7 +21894,7 @@
       <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
@@ -21839,6 +21913,7 @@
       <c r="E7" s="2">
         <v>6</v>
       </c>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
@@ -21857,6 +21932,7 @@
       <c r="E8" s="2">
         <v>7</v>
       </c>
+      <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
@@ -21893,7 +21969,7 @@
       <c r="E10" s="2">
         <v>9</v>
       </c>
-      <c r="F10" s="40"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
@@ -21984,7 +22060,7 @@
       <c r="E15" s="2">
         <v>14</v>
       </c>
-      <c r="F15" s="40"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
@@ -22075,7 +22151,7 @@
       <c r="E20" s="2">
         <v>19</v>
       </c>
-      <c r="F20" s="40"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
@@ -22112,7 +22188,7 @@
       <c r="E22" s="2">
         <v>21</v>
       </c>
-      <c r="F22" s="40"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
@@ -22131,7 +22207,7 @@
       <c r="E23" s="2">
         <v>22</v>
       </c>
-      <c r="F23" s="40"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
@@ -22204,6 +22280,7 @@
       <c r="E27" s="2">
         <v>26</v>
       </c>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
@@ -22222,7 +22299,7 @@
       <c r="E28" s="2">
         <v>27</v>
       </c>
-      <c r="F28" s="40"/>
+      <c r="F28" s="39"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
@@ -22820,13 +22897,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B53" sqref="B53:E54"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -23013,20 +23090,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>IF((B8=""),"",VLOOKUP(B8,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Approves Submitted IPD/EP - s.13(3)(a)</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>180</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="G8" s="2">
         <v>7</v>
@@ -23044,13 +23121,13 @@
         <v>CEAO Approves Submitted IPD/EP - s.13(3)(a)</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="G9" s="2">
         <v>8</v>
@@ -23061,100 +23138,100 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4" t="str">
         <f>IF((B10=""),"",VLOOKUP(B10,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised IPD/EP - s.13(3)(b)</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>182</v>
+        <v>CEAO Approves Submitted IPD/EP - s.13(3)(a)</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>339</v>
+        <v>181</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G10" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="40" customFormat="1">
-      <c r="A11" s="39">
-        <v>11</v>
-      </c>
-      <c r="B11" s="39">
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="40" t="str">
+      <c r="C11" s="4" t="str">
         <f>IF((B11=""),"",VLOOKUP(B11,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>CEAO Requires the Proponent to Submit a Revised IPD/EP - s.13(3)(b)</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="39" customFormat="1">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38">
+        <v>5</v>
+      </c>
+      <c r="C12" s="39" t="str">
+        <f>IF((B12=""),"",VLOOKUP(B12,Outcomes!$A$2:$D$30,4,FALSE))</f>
+        <v>CEAO Requires the Proponent to Submit a Revised IPD/EP - s.13(3)(b)</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E12" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G12" s="2">
         <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="str">
-        <f>IF((B12=""),"",VLOOKUP(B12,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G12" s="2">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4" t="str">
         <f>IF((B13=""),"",VLOOKUP(B13,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D13" t="s">
-        <v>171</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G13" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>7</v>
@@ -23163,22 +23240,22 @@
         <f>IF((B14=""),"",VLOOKUP(B14,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>173</v>
+      <c r="D14" t="s">
+        <v>171</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G14" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>7</v>
@@ -23188,21 +23265,21 @@
         <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G15" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>7</v>
@@ -23212,69 +23289,69 @@
         <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G16" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>IF((B17=""),"",VLOOKUP(B17,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D17" t="s">
-        <v>171</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G17" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>IF((B18=""),"",VLOOKUP(B18,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="G18" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3">
         <v>8</v>
@@ -23283,22 +23360,22 @@
         <f>IF((B19=""),"",VLOOKUP(B19,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>Proponent Withdraws Project from the Exemption Request Process</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>175</v>
+      <c r="D19" t="s">
+        <v>171</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G19" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>8</v>
@@ -23308,165 +23385,165 @@
         <v>Proponent Withdraws Project from the Exemption Request Process</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G20" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>IF((B21=""),"",VLOOKUP(B21,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Last Day of Exemption Request: Early Engagement PHASE</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>191</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G21" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>IF((B22=""),"",VLOOKUP(B22,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>EAO's Viewpoint is POSITIVE</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>169</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G22" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>IF((B23=""),"",VLOOKUP(B23,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>EAO's Viewpoint is NEGATIVE</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>170</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="G23" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>IF((B24=""),"",VLOOKUP(B24,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D24" t="s">
-        <v>171</v>
+        <v>Last Day of Exemption Request: Early Engagement PHASE</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="G24" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>IF((B25=""),"",VLOOKUP(B25,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>173</v>
+        <v>EAO's Viewpoint is POSITIVE</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G25" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="4" t="str">
         <f>IF((B26=""),"",VLOOKUP(B26,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>175</v>
+        <v>EAO's Viewpoint is NEGATIVE</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G26" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
         <v>12</v>
@@ -23475,161 +23552,161 @@
         <f>IF((B27=""),"",VLOOKUP(B27,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>177</v>
+      <c r="D27" t="s">
+        <v>171</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G27" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>IF((B28=""),"",VLOOKUP(B28,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D28" t="s">
-        <v>171</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G28" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>IF((B29=""),"",VLOOKUP(B29,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G29" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>IF((B30=""),"",VLOOKUP(B30,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G30" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>IF((B31=""),"",VLOOKUP(B31,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="G31" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="4" t="str">
         <f>IF((B32=""),"",VLOOKUP(B32,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>193</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D32" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="G32" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" s="44" customFormat="1">
-      <c r="A33" s="15">
+      <c r="B33" s="3">
+        <v>13</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <f>IF((B33=""),"",VLOOKUP(B33,Outcomes!$A$2:$D$30,4,FALSE))</f>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G33" s="2">
         <v>32</v>
-      </c>
-      <c r="B33" s="15">
-        <v>14</v>
-      </c>
-      <c r="C33" s="44" t="str">
-        <f>IF((B33=""),"",VLOOKUP(B33,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="G33" s="15">
-        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -23637,2195 +23714,2195 @@
         <v>33</v>
       </c>
       <c r="B34" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="4" t="str">
         <f>IF((B34=""),"",VLOOKUP(B34,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>189</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>341</v>
+        <v>176</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="G34" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="4" t="str">
         <f>IF((B35=""),"",VLOOKUP(B35,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>191</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="G35" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" s="4" t="str">
         <f>IF((B36=""),"",VLOOKUP(B36,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Project is Referred to Minister for Exemption - s.16(2)(b)</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>170</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="G36" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37" s="4" t="str">
         <f>IF((B37=""),"",VLOOKUP(B37,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
+        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="G37" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="43" customFormat="1">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="2">
-        <v>40</v>
-      </c>
-      <c r="B38" s="3">
-        <v>17</v>
-      </c>
-      <c r="C38" s="4" t="str">
+      <c r="B38" s="15">
+        <v>14</v>
+      </c>
+      <c r="C38" s="43" t="str">
         <f>IF((B38=""),"",VLOOKUP(B38,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D38" t="s">
-        <v>171</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>325</v>
+        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>356</v>
       </c>
       <c r="G38" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C39" s="4" t="str">
         <f>IF((B39=""),"",VLOOKUP(B39,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>173</v>
+        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>174</v>
+        <v>341</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="G39" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C40" s="4" t="str">
         <f>IF((B40=""),"",VLOOKUP(B40,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>175</v>
+        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="G40" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C41" s="4" t="str">
         <f>IF((B41=""),"",VLOOKUP(B41,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>177</v>
+        <v>Project is Referred to Minister for Exemption - s.16(2)(b)</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G41" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C42" s="4" t="str">
         <f>IF((B42=""),"",VLOOKUP(B42,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D42" t="s">
-        <v>171</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G42" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="4" t="str">
         <f>IF((B43=""),"",VLOOKUP(B43,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>173</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D43" t="s">
+        <v>171</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G43" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="4" t="str">
         <f>IF((B44=""),"",VLOOKUP(B44,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G44" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="4" t="str">
         <f>IF((B45=""),"",VLOOKUP(B45,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G45" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B46" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C46" s="4" t="str">
         <f>IF((B46=""),"",VLOOKUP(B46,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Last Day of Exemption Request: Readiness Decision PHASE</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>194</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="G46" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B47" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C47" s="4" t="str">
         <f>IF((B47=""),"",VLOOKUP(B47,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D47" t="s">
-        <v>171</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>172</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="G47" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B48" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C48" s="4" t="str">
         <f>IF((B48=""),"",VLOOKUP(B48,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>Proponent Withdraws Project from the Exemption Request Process</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>173</v>
+      <c r="D48" t="s">
+        <v>171</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G48" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B49" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C49" s="4" t="str">
         <f>IF((B49=""),"",VLOOKUP(B49,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>Proponent Withdraws Project from the Exemption Request Process</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G49" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B50" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C50" s="4" t="str">
         <f>IF((B50=""),"",VLOOKUP(B50,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>Proponent Withdraws Project from the Exemption Request Process</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G50" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B51" s="3">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C51" s="4" t="str">
         <f>IF((B51=""),"",VLOOKUP(B51,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Project is Exempt from Requiring an EAC</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>175</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G51" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B52" s="3">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C52" s="4" t="str">
         <f>IF((B52=""),"",VLOOKUP(B52,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Project is Exempt from Requiring an EAC</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>196</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="G52" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B53" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C53" s="4" t="str">
         <f>IF((B53=""),"",VLOOKUP(B53,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Refer the Project to the CEAO for Further Decision</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E53" s="43" t="s">
-        <v>198</v>
+        <v>Last Day of Exemption Request: Readiness Decision PHASE</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>194</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="G53" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B54" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C54" s="4" t="str">
         <f>IF((B54=""),"",VLOOKUP(B54,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Refer the Project to the CEAO for Further Decision</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>199</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D54" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="G54" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B55" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C55" s="4" t="str">
         <f>IF((B55=""),"",VLOOKUP(B55,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>184</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G55" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B56" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C56" s="4" t="str">
         <f>IF((B56=""),"",VLOOKUP(B56,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D56" t="s">
-        <v>171</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G56" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B57" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C57" s="4" t="str">
         <f>IF((B57=""),"",VLOOKUP(B57,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G57" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C58" s="4" t="str">
         <f>IF((B58=""),"",VLOOKUP(B58,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="G58" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C59" s="4" t="str">
         <f>IF((B59=""),"",VLOOKUP(B59,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>177</v>
+        <v>Project is Exempt from Requiring an EAC</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="G59" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B60" s="3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C60" s="4" t="str">
         <f>IF((B60=""),"",VLOOKUP(B60,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D60" t="s">
-        <v>171</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>172</v>
+        <v>Project is Exempt from Requiring an EAC</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>197</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="G60" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B61" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C61" s="4" t="str">
         <f>IF((B61=""),"",VLOOKUP(B61,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+        <v>Refer the Project to the CEAO for Further Decision</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>174</v>
+        <v>189</v>
+      </c>
+      <c r="E61" s="42" t="s">
+        <v>198</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="G61" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B62" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C62" s="4" t="str">
         <f>IF((B62=""),"",VLOOKUP(B62,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>176</v>
+        <v>Refer the Project to the CEAO for Further Decision</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>199</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="G62" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B63" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C63" s="4" t="str">
         <f>IF((B63=""),"",VLOOKUP(B63,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>177</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>184</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G63" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B64" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C64" s="4" t="str">
         <f>IF((B64=""),"",VLOOKUP(B64,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised Exemption Request DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>189</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D64" t="s">
+        <v>171</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F64" s="43" t="s">
-        <v>342</v>
+        <v>172</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="G64" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B65" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C65" s="4" t="str">
         <f>IF((B65=""),"",VLOOKUP(B65,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised Exemption Request DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>191</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F65" s="42" t="s">
-        <v>343</v>
+        <v>174</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="G65" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B66" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C66" s="4" t="str">
         <f>IF((B66=""),"",VLOOKUP(B66,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised EAC Assessment DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="F66" s="30" t="s">
-        <v>348</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="G66" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B67" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C67" s="4" t="str">
         <f>IF((B67=""),"",VLOOKUP(B67,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised EAC Assessment DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E67" s="43" t="s">
-        <v>190</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="G67" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B68" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C68" s="4" t="str">
         <f>IF((B68=""),"",VLOOKUP(B68,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised EAC Assessment DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>192</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="G68" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" s="38" customFormat="1">
-      <c r="A69" s="2">
-        <v>80</v>
-      </c>
       <c r="B69" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C69" s="4" t="str">
         <f>IF((B69=""),"",VLOOKUP(B69,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Project Moves to EAC Assessment: Process Planning PHASE - s.18(1)(a)</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>182</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D69" t="s">
+        <v>171</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="G69" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B70" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C70" s="4" t="str">
         <f>IF((B70=""),"",VLOOKUP(B70,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Project Moves to EAC Assessment: Process Planning PHASE - s.18(1)(a)</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>200</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="G70" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B71" s="3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C71" s="4" t="str">
         <f>IF((B71=""),"",VLOOKUP(B71,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Project is Referred to Minister for EAC Assessment: Process Planning - s.18(1)(b)</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>202</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G71" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B72" s="3">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C72" s="4" t="str">
-        <f>IF((B72=""),"",VLOOKUP(B72,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>No Federal Involvement triggered for this WORK</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E72" s="30" t="s">
-        <v>319</v>
+        <f>IF((B72=""),"",VLOOKUP(B72,Outcomes!$A$2:$D$30,4,FALSE))</f>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="G72" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B73" s="3">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C73" s="4" t="str">
-        <f>IF((B73=""),"",VLOOKUP(B73,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Federal Substitution Request Approved</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>321</v>
+        <f>IF((B73=""),"",VLOOKUP(B73,Outcomes!$A$2:$D$30,4,FALSE))</f>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="G73" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="B74" s="3">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C74" s="4" t="str">
-        <f>IF((B74=""),"",VLOOKUP(B74,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Other form of Federal Involvement (Coordination, etc.)</v>
+        <f>IF((B74=""),"",VLOOKUP(B74,Outcomes!$A$2:$D$30,4,FALSE))</f>
+        <v>CEAO Requires the Proponent to Submit a Revised Exemption Request DPD - s.16(2)(a)</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>323</v>
+        <v>189</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F74" s="42" t="s">
+        <v>342</v>
       </c>
       <c r="G74" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B75" s="3">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C75" s="4" t="str">
-        <f>IF((B75=""),"",VLOOKUP(B75,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
+        <f>IF((B75=""),"",VLOOKUP(B75,Outcomes!$A$2:$D$30,4,FALSE))</f>
+        <v>CEAO Requires the Proponent to Submit a Revised Exemption Request DPD - s.16(2)(a)</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>324</v>
+        <v>192</v>
+      </c>
+      <c r="F75" s="41" t="s">
+        <v>343</v>
       </c>
       <c r="G75" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B76" s="3">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C76" s="4" t="str">
-        <f>IF((B76=""),"",VLOOKUP(B76,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D76" t="s">
-        <v>171</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>325</v>
+        <f>IF((B76=""),"",VLOOKUP(B76,Outcomes!$A$2:$D$30,4,FALSE))</f>
+        <v>CEAO Requires the Proponent to Submit a Revised EAC Assessment DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>348</v>
       </c>
       <c r="G76" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="B77" s="3">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C77" s="4" t="str">
-        <f>IF((B77=""),"",VLOOKUP(B77,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>174</v>
+        <f>IF((B77=""),"",VLOOKUP(B77,Outcomes!$A$2:$D$30,4,FALSE))</f>
+        <v>CEAO Requires the Proponent to Submit a Revised EAC Assessment DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" s="42" t="s">
+        <v>190</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="G77" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B78" s="3">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C78" s="4" t="str">
-        <f>IF((B78=""),"",VLOOKUP(B78,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>175</v>
+        <f>IF((B78=""),"",VLOOKUP(B78,Outcomes!$A$2:$D$30,4,FALSE))</f>
+        <v>CEAO Requires the Proponent to Submit a Revised EAC Assessment DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="G78" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="37" customFormat="1">
+      <c r="A79" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="2">
-        <v>106</v>
-      </c>
       <c r="B79" s="3">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C79" s="4" t="str">
-        <f>IF((B79=""),"",VLOOKUP(B79,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>177</v>
+        <f>IF((B79=""),"",VLOOKUP(B79,Outcomes!$A$2:$D$30,4,FALSE))</f>
+        <v>Project Moves to EAC Assessment: Process Planning PHASE - s.18(1)(a)</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="G79" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B80" s="3">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C80" s="4" t="str">
-        <f>IF((B80=""),"",VLOOKUP(B80,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D80" t="s">
-        <v>171</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>172</v>
+        <f>IF((B80=""),"",VLOOKUP(B80,Outcomes!$A$2:$D$30,4,FALSE))</f>
+        <v>Project Moves to EAC Assessment: Process Planning PHASE - s.18(1)(a)</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="G80" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B81" s="3">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C81" s="4" t="str">
-        <f>IF((B81=""),"",VLOOKUP(B81,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>174</v>
+        <f>IF((B81=""),"",VLOOKUP(B81,Outcomes!$A$2:$D$30,4,FALSE))</f>
+        <v>Project is Referred to Minister for EAC Assessment: Process Planning - s.18(1)(b)</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>202</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G81" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B82" s="3">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C82" s="4" t="str">
         <f>IF((B82=""),"",VLOOKUP(B82,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>176</v>
+        <v>No Federal Involvement triggered for this WORK</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>319</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G82" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B83" s="3">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C83" s="4" t="str">
         <f>IF((B83=""),"",VLOOKUP(B83,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>178</v>
+        <v>Federal Substitution Request Approved</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>321</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G83" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B84" s="3">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C84" s="4" t="str">
         <f>IF((B84=""),"",VLOOKUP(B84,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Last Day of EAC Assessment: Process Planning PHASE</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>191</v>
+        <v>Other form of Federal Involvement (Coordination, etc.)</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="F84" s="43" t="s">
-        <v>358</v>
+        <v>202</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="G84" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B85" s="3">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C85" s="4" t="str">
         <f>IF((B85=""),"",VLOOKUP(B85,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is POSITIVE</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G85" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="B86" s="3">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C86" s="4" t="str">
         <f>IF((B86=""),"",VLOOKUP(B86,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is NEGATIVE</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>169</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D86" t="s">
+        <v>171</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G86" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="B87" s="3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C87" s="4" t="str">
         <f>IF((B87=""),"",VLOOKUP(B87,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>184</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G87" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="B88" s="3">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C88" s="4" t="str">
         <f>IF((B88=""),"",VLOOKUP(B88,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D88" t="s">
-        <v>171</v>
+      <c r="D88" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G88" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="B89" s="3">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C89" s="4" t="str">
         <f>IF((B89=""),"",VLOOKUP(B89,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G89" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="B90" s="3">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C90" s="4" t="str">
         <f>IF((B90=""),"",VLOOKUP(B90,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="G90" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B91" s="3">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C91" s="4" t="str">
         <f>IF((B91=""),"",VLOOKUP(B91,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>177</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D91" t="s">
+        <v>171</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G91" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B92" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C92" s="4" t="str">
         <f>IF((B92=""),"",VLOOKUP(B92,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D92" t="s">
-        <v>171</v>
+      <c r="D92" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G92" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B93" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C93" s="4" t="str">
         <f>IF((B93=""),"",VLOOKUP(B93,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G93" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="B94" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C94" s="4" t="str">
         <f>IF((B94=""),"",VLOOKUP(B94,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G94" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="B95" s="3">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C95" s="4" t="str">
         <f>IF((B95=""),"",VLOOKUP(B95,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="G95" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="B96" s="3">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C96" s="4" t="str">
         <f>IF((B96=""),"",VLOOKUP(B96,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>324</v>
+        <v>Last Day of EAC Assessment: Process Planning PHASE</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="F96" s="42" t="s">
+        <v>358</v>
       </c>
       <c r="G96" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="B97" s="3">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C97" s="4" t="str">
         <f>IF((B97=""),"",VLOOKUP(B97,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D97" t="s">
-        <v>171</v>
+        <v>EAO's Viewpoint is POSITIVE</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G97" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B98" s="3">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C98" s="4" t="str">
         <f>IF((B98=""),"",VLOOKUP(B98,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>173</v>
+        <v>EAO's Viewpoint is NEGATIVE</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G98" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="B99" s="3">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C99" s="4" t="str">
         <f>IF((B99=""),"",VLOOKUP(B99,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>175</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G99" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B100" s="3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C100" s="4" t="str">
         <f>IF((B100=""),"",VLOOKUP(B100,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D100" s="9" t="s">
-        <v>177</v>
+      <c r="D100" t="s">
+        <v>171</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G100" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="B101" s="3">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C101" s="4" t="str">
         <f>IF((B101=""),"",VLOOKUP(B101,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D101" t="s">
-        <v>171</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G101" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="B102" s="3">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C102" s="4" t="str">
         <f>IF((B102=""),"",VLOOKUP(B102,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G102" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="B103" s="3">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C103" s="4" t="str">
         <f>IF((B103=""),"",VLOOKUP(B103,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G103" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="B104" s="3">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C104" s="4" t="str">
         <f>IF((B104=""),"",VLOOKUP(B104,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="G104" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="B105" s="3">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C105" s="4" t="str">
         <f>IF((B105=""),"",VLOOKUP(B105,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Last Day of EAC Assessment: EAC Application Review PHASE</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E105" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="F105" s="43" t="s">
-        <v>359</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D105" t="s">
+        <v>171</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="G105" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B106" s="3">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C106" s="4" t="str">
         <f>IF((B106=""),"",VLOOKUP(B106,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is POSITIVE</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>169</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G106" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="B107" s="3">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C107" s="4" t="str">
         <f>IF((B107=""),"",VLOOKUP(B107,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is NEGATIVE</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>169</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G107" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="B108" s="3">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C108" s="4" t="str">
         <f>IF((B108=""),"",VLOOKUP(B108,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>184</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G108" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B109" s="3">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C109" s="4" t="str">
         <f>IF((B109=""),"",VLOOKUP(B109,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D109" t="s">
-        <v>171</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>172</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>325</v>
+        <v>378</v>
       </c>
       <c r="G109" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B110" s="3">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C110" s="4" t="str">
         <f>IF((B110=""),"",VLOOKUP(B110,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>173</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G110" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="B111" s="3">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C111" s="4" t="str">
         <f>IF((B111=""),"",VLOOKUP(B111,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D111" s="9" t="s">
-        <v>175</v>
+      <c r="D111" t="s">
+        <v>171</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G111" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="B112" s="3">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C112" s="4" t="str">
         <f>IF((B112=""),"",VLOOKUP(B112,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G112" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="B113" s="3">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C113" s="4" t="str">
         <f>IF((B113=""),"",VLOOKUP(B113,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D113" t="s">
-        <v>171</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G113" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="B114" s="3">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C114" s="4" t="str">
         <f>IF((B114=""),"",VLOOKUP(B114,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G114" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="B115" s="3">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C115" s="4" t="str">
         <f>IF((B115=""),"",VLOOKUP(B115,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
+      </c>
+      <c r="E115" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="G115" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="B116" s="3">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C116" s="4" t="str">
         <f>IF((B116=""),"",VLOOKUP(B116,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D116" s="9" t="s">
-        <v>177</v>
+      <c r="D116" t="s">
+        <v>171</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G116" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="B117" s="3">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C117" s="4" t="str">
         <f>IF((B117=""),"",VLOOKUP(B117,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Revised EAC Application Sufficient to Proceed</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E117" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="F117" s="43" t="s">
-        <v>360</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="G117" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="B118" s="3">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C118" s="4" t="str">
         <f>IF((B118=""),"",VLOOKUP(B118,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent must provide an updated Revised EAC Application</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E118" s="30" t="s">
-        <v>333</v>
+        <v>175</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="G118" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B119" s="3">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C119" s="4" t="str">
         <f>IF((B119=""),"",VLOOKUP(B119,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent must provide an updated Revised EAC Application</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E119" s="30" t="s">
-        <v>334</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="G119" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B120" s="3">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C120" s="4" t="str">
         <f>IF((B120=""),"",VLOOKUP(B120,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>185</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>324</v>
+        <v>381</v>
       </c>
       <c r="G120" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B121" s="3">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C121" s="4" t="str">
         <f>IF((B121=""),"",VLOOKUP(B121,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D121" t="s">
-        <v>171</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>325</v>
+        <v>Last Day of EAC Assessment: EAC Application Review PHASE</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E121" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="F121" s="42" t="s">
+        <v>359</v>
       </c>
       <c r="G121" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="B122" s="3">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C122" s="4" t="str">
         <f>IF((B122=""),"",VLOOKUP(B122,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>173</v>
+        <v>EAO's Viewpoint is POSITIVE</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G122" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B123" s="3">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C123" s="4" t="str">
         <f>IF((B123=""),"",VLOOKUP(B123,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>175</v>
+        <v>EAO's Viewpoint is NEGATIVE</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G123" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B124" s="3">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C124" s="4" t="str">
         <f>IF((B124=""),"",VLOOKUP(B124,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>177</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G124" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="B125" s="3">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C125" s="4" t="str">
         <f>IF((B125=""),"",VLOOKUP(B125,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D125" t="s">
         <v>171</v>
@@ -25837,19 +25914,19 @@
         <v>325</v>
       </c>
       <c r="G125" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="B126" s="3">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C126" s="4" t="str">
         <f>IF((B126=""),"",VLOOKUP(B126,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>173</v>
@@ -25861,43 +25938,43 @@
         <v>326</v>
       </c>
       <c r="G126" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B127" s="3">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C127" s="4" t="str">
         <f>IF((B127=""),"",VLOOKUP(B127,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>175</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G127" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="B128" s="3">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C128" s="4" t="str">
         <f>IF((B128=""),"",VLOOKUP(B128,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>177</v>
@@ -25909,39 +25986,39 @@
         <v>328</v>
       </c>
       <c r="G128" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B129" s="3">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C129" s="4" t="str">
         <f>IF((B129=""),"",VLOOKUP(B129,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Last Day of EAC Assessment: Effects Assessment PHASE</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E129" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="F129" s="43" t="s">
-        <v>363</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="G129" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B130" s="3">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C130" s="4" t="str">
         <f>IF((B130=""),"",VLOOKUP(B130,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
@@ -25957,15 +26034,15 @@
         <v>325</v>
       </c>
       <c r="G130" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="B131" s="3">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C131" s="4" t="str">
         <f>IF((B131=""),"",VLOOKUP(B131,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
@@ -25981,15 +26058,15 @@
         <v>326</v>
       </c>
       <c r="G131" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B132" s="3">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C132" s="4" t="str">
         <f>IF((B132=""),"",VLOOKUP(B132,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
@@ -26005,15 +26082,15 @@
         <v>329</v>
       </c>
       <c r="G132" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B133" s="3">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C133" s="4" t="str">
         <f>IF((B133=""),"",VLOOKUP(B133,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
@@ -26029,107 +26106,611 @@
         <v>328</v>
       </c>
       <c r="G133" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B134" s="3">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C134" s="4" t="str">
         <f>IF((B134=""),"",VLOOKUP(B134,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Environmental Assessment Certificate GRANTED</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>195</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="G134" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B135" s="3">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C135" s="4" t="str">
         <f>IF((B135=""),"",VLOOKUP(B135,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Environmental Assessment Certificate GRANTED</v>
+        <v>Revised EAC Application Sufficient to Proceed</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E135" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
+      </c>
+      <c r="F135" s="42" t="s">
+        <v>360</v>
       </c>
       <c r="G135" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="B136" s="3">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C136" s="4" t="str">
         <f>IF((B136=""),"",VLOOKUP(B136,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Environmental Assessment Certificate REFUSED</v>
+        <v>Proponent must provide an updated Revised EAC Application</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>195</v>
+        <v>182</v>
+      </c>
+      <c r="E136" s="30" t="s">
+        <v>333</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="G136" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="B137" s="3">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C137" s="4" t="str">
         <f>IF((B137=""),"",VLOOKUP(B137,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>Proponent must provide an updated Revised EAC Application</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E137" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G137" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3">
+        <v>59</v>
+      </c>
+      <c r="C138" s="4" t="str">
+        <f>IF((B138=""),"",VLOOKUP(B138,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G138" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3">
+        <v>60</v>
+      </c>
+      <c r="C139" s="4" t="str">
+        <f>IF((B139=""),"",VLOOKUP(B139,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D139" t="s">
+        <v>171</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G139" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3">
+        <v>60</v>
+      </c>
+      <c r="C140" s="4" t="str">
+        <f>IF((B140=""),"",VLOOKUP(B140,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G140" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3">
+        <v>60</v>
+      </c>
+      <c r="C141" s="4" t="str">
+        <f>IF((B141=""),"",VLOOKUP(B141,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G141" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3">
+        <v>60</v>
+      </c>
+      <c r="C142" s="4" t="str">
+        <f>IF((B142=""),"",VLOOKUP(B142,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G142" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3">
+        <v>60</v>
+      </c>
+      <c r="C143" s="4" t="str">
+        <f>IF((B143=""),"",VLOOKUP(B143,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E143" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G143" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3">
+        <v>61</v>
+      </c>
+      <c r="C144" s="4" t="str">
+        <f>IF((B144=""),"",VLOOKUP(B144,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D144" t="s">
+        <v>171</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G144" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3">
+        <v>61</v>
+      </c>
+      <c r="C145" s="4" t="str">
+        <f>IF((B145=""),"",VLOOKUP(B145,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G145" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
+      <c r="B146" s="3">
+        <v>61</v>
+      </c>
+      <c r="C146" s="4" t="str">
+        <f>IF((B146=""),"",VLOOKUP(B146,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G146" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3">
+        <v>61</v>
+      </c>
+      <c r="C147" s="4" t="str">
+        <f>IF((B147=""),"",VLOOKUP(B147,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G147" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" s="3">
+        <v>61</v>
+      </c>
+      <c r="C148" s="4" t="str">
+        <f>IF((B148=""),"",VLOOKUP(B148,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E148" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G148" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
+      <c r="B149" s="3">
+        <v>62</v>
+      </c>
+      <c r="C149" s="4" t="str">
+        <f>IF((B149=""),"",VLOOKUP(B149,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>Last Day of EAC Assessment: Effects Assessment PHASE</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E149" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="F149" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="G149" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+      <c r="B150" s="3">
+        <v>63</v>
+      </c>
+      <c r="C150" s="4" t="str">
+        <f>IF((B150=""),"",VLOOKUP(B150,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D150" t="s">
+        <v>171</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G150" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="2">
+        <v>150</v>
+      </c>
+      <c r="B151" s="3">
+        <v>63</v>
+      </c>
+      <c r="C151" s="4" t="str">
+        <f>IF((B151=""),"",VLOOKUP(B151,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G151" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="3">
+        <v>63</v>
+      </c>
+      <c r="C152" s="4" t="str">
+        <f>IF((B152=""),"",VLOOKUP(B152,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G152" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3">
+        <v>63</v>
+      </c>
+      <c r="C153" s="4" t="str">
+        <f>IF((B153=""),"",VLOOKUP(B153,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G153" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="3">
+        <v>63</v>
+      </c>
+      <c r="C154" s="4" t="str">
+        <f>IF((B154=""),"",VLOOKUP(B154,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E154" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G154" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="3">
+        <v>64</v>
+      </c>
+      <c r="C155" s="4" t="str">
+        <f>IF((B155=""),"",VLOOKUP(B155,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>Environmental Assessment Certificate GRANTED</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G155" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="3">
+        <v>64</v>
+      </c>
+      <c r="C156" s="4" t="str">
+        <f>IF((B156=""),"",VLOOKUP(B156,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>Environmental Assessment Certificate GRANTED</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E156" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G156" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="3">
+        <v>65</v>
+      </c>
+      <c r="C157" s="4" t="str">
+        <f>IF((B157=""),"",VLOOKUP(B157,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Environmental Assessment Certificate REFUSED</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D157" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G157" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="3">
+        <v>65</v>
+      </c>
+      <c r="C158" s="4" t="str">
+        <f>IF((B158=""),"",VLOOKUP(B158,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>Environmental Assessment Certificate REFUSED</v>
+      </c>
+      <c r="D158" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F158" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G137" s="2">
-        <v>137</v>
+      <c r="G158" s="2">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G137" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <autoFilter ref="A1:G158" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -26139,13 +26720,13 @@
           <x14:formula1>
             <xm:f>Lookups!$U$3:$U$16</xm:f>
           </x14:formula1>
-          <xm:sqref>D55:D71 D2:D50</xm:sqref>
+          <xm:sqref>D2:D58 D63:D81 D90 D95 D104 D109 D115 D120 D129 D134 D143 D148 D154</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Outcomes!$A$2:$A$30</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B71</xm:sqref>
+          <xm:sqref>B2:B81</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/epictrack-api/src/api/templates/event_templates/exemption_request/002_Exemption_Request.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/exemption_request/002_Exemption_Request.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\exemption_request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90FA236-4C7A-417D-9814-D7DCC88FA611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FC8B2E-BF2E-4591-98DA-C883287F2245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phases" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Actions!$A$1:$G$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Actions!$A$1:$G$137</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Events!$A$1:$M$335</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outcomes!$A$1:$E$15</definedName>
   </definedNames>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="366">
   <si>
     <t>No</t>
   </si>
@@ -1148,69 +1148,6 @@
   </si>
   <si>
     <t>[{"phase_name":"Further Readiness Decision","work_type_id": 5, "ea_act_id": 3, "new_name": "Further Readiness Decision", "legislated": false }]</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Pre-EA (Exemption Request)","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Early Engagement","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Early Engagement","work_type_id": 5, "ea_act_id": 3, "event_name": "Exemption Request Terminated s.39(d)"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"DPD Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Exemption Request Terminated s.39(d)"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Exemption Request Terminated s.39(d)"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Exemption Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Further Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Further Readiness Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "EAC Assessment Terminated s.39(d)"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Process Planning","work_type_id": 5, "ea_act_id": 3, "event_name": "EAC Assessment Terminated s.39(d)"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Process Planning","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"EAC Application Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"EAC Application Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "EAC Assessment Terminated s.39(d)"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"EAC Application Review","work_type_id": 5, "ea_act_id": 3, "event_name": "EAC Assessment Terminated s.39(d)"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"EAC Application Review","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "EAC Assessment Terminated s.39(d)"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Revised EAC Application Development (Proponent Time)","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Effects Assessment &amp; Recommendation","work_type_id": 5, "ea_act_id": 3, "event_name": "EAC Assessment Terminated s.39(d)"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Effects Assessment &amp; Recommendation","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
-  </si>
-  <si>
-    <t>{"phase_name":"EAC Decision","work_type_id": 5, "ea_act_id": 3, "event_name": "Project Withdrawn"}</t>
   </si>
 </sst>
 </file>
@@ -21765,7 +21702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -22897,13 +22834,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -23090,20 +23027,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>IF((B8=""),"",VLOOKUP(B8,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>193</v>
+        <v>CEAO Approves Submitted IPD/EP - s.13(3)(a)</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="G8" s="2">
         <v>7</v>
@@ -23121,13 +23058,13 @@
         <v>CEAO Approves Submitted IPD/EP - s.13(3)(a)</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="G9" s="2">
         <v>8</v>
@@ -23138,68 +23075,68 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="str">
         <f>IF((B10=""),"",VLOOKUP(B10,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Approves Submitted IPD/EP - s.13(3)(a)</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>191</v>
+        <v>CEAO Requires the Proponent to Submit a Revised IPD/EP - s.13(3)(b)</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>181</v>
+        <v>339</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G10" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" s="39" customFormat="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="38">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="str">
+      <c r="C11" s="39" t="str">
         <f>IF((B11=""),"",VLOOKUP(B11,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>CEAO Requires the Proponent to Submit a Revised IPD/EP - s.13(3)(b)</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>339</v>
+      <c r="D11" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>350</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G11" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="39" customFormat="1">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="38">
-        <v>5</v>
-      </c>
-      <c r="C12" s="39" t="str">
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="str">
         <f>IF((B12=""),"",VLOOKUP(B12,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised IPD/EP - s.13(3)(b)</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>350</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="G12" s="2">
         <v>11</v>
@@ -23210,20 +23147,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4" t="str">
         <f>IF((B13=""),"",VLOOKUP(B13,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>184</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D13" t="s">
+        <v>171</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G13" s="2">
         <v>12</v>
@@ -23240,14 +23177,14 @@
         <f>IF((B14=""),"",VLOOKUP(B14,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D14" t="s">
-        <v>171</v>
+      <c r="D14" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G14" s="2">
         <v>13</v>
@@ -23265,13 +23202,13 @@
         <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G15" s="2">
         <v>14</v>
@@ -23289,13 +23226,13 @@
         <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G16" s="2">
         <v>15</v>
@@ -23306,20 +23243,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>IF((B17=""),"",VLOOKUP(B17,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>177</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D17" t="s">
+        <v>171</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G17" s="2">
         <v>16</v>
@@ -23330,20 +23267,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>IF((B18=""),"",VLOOKUP(B18,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>193</v>
+        <v>173</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="G18" s="2">
         <v>17</v>
@@ -23360,14 +23297,14 @@
         <f>IF((B19=""),"",VLOOKUP(B19,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>Proponent Withdraws Project from the Exemption Request Process</v>
       </c>
-      <c r="D19" t="s">
-        <v>171</v>
+      <c r="D19" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G19" s="2">
         <v>18</v>
@@ -23385,13 +23322,13 @@
         <v>Proponent Withdraws Project from the Exemption Request Process</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G20" s="2">
         <v>19</v>
@@ -23402,20 +23339,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>IF((B21=""),"",VLOOKUP(B21,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>175</v>
+        <v>Last Day of Exemption Request: Early Engagement PHASE</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="G21" s="2">
         <v>20</v>
@@ -23426,20 +23363,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>IF((B22=""),"",VLOOKUP(B22,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>177</v>
+        <v>EAO's Viewpoint is POSITIVE</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G22" s="2">
         <v>21</v>
@@ -23450,20 +23387,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>IF((B23=""),"",VLOOKUP(B23,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>193</v>
+        <v>EAO's Viewpoint is NEGATIVE</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="G23" s="2">
         <v>22</v>
@@ -23474,20 +23411,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>IF((B24=""),"",VLOOKUP(B24,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Last Day of Exemption Request: Early Engagement PHASE</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>191</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D24" t="s">
+        <v>171</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="G24" s="2">
         <v>23</v>
@@ -23498,20 +23435,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>IF((B25=""),"",VLOOKUP(B25,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>EAO's Viewpoint is POSITIVE</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>169</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G25" s="2">
         <v>24</v>
@@ -23522,20 +23459,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4" t="str">
         <f>IF((B26=""),"",VLOOKUP(B26,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>EAO's Viewpoint is NEGATIVE</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>169</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G26" s="2">
         <v>25</v>
@@ -23552,14 +23489,14 @@
         <f>IF((B27=""),"",VLOOKUP(B27,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D27" t="s">
-        <v>171</v>
+      <c r="D27" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G27" s="2">
         <v>26</v>
@@ -23570,20 +23507,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>IF((B28=""),"",VLOOKUP(B28,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>173</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D28" t="s">
+        <v>171</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G28" s="2">
         <v>27</v>
@@ -23594,20 +23531,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>IF((B29=""),"",VLOOKUP(B29,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G29" s="2">
         <v>28</v>
@@ -23618,20 +23555,20 @@
         <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>IF((B30=""),"",VLOOKUP(B30,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G30" s="2">
         <v>29</v>
@@ -23642,20 +23579,20 @@
         <v>30</v>
       </c>
       <c r="B31" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>IF((B31=""),"",VLOOKUP(B31,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>193</v>
+        <v>177</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="G31" s="2">
         <v>30</v>
@@ -23666,44 +23603,44 @@
         <v>31</v>
       </c>
       <c r="B32" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" s="4" t="str">
         <f>IF((B32=""),"",VLOOKUP(B32,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D32" t="s">
-        <v>171</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>172</v>
+        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="G32" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" s="43" customFormat="1">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
-        <v>13</v>
-      </c>
-      <c r="C33" s="4" t="str">
+      <c r="B33" s="15">
+        <v>14</v>
+      </c>
+      <c r="C33" s="43" t="str">
         <f>IF((B33=""),"",VLOOKUP(B33,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>326</v>
+        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>356</v>
       </c>
       <c r="G33" s="2">
         <v>32</v>
@@ -23714,20 +23651,20 @@
         <v>33</v>
       </c>
       <c r="B34" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" s="4" t="str">
         <f>IF((B34=""),"",VLOOKUP(B34,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>175</v>
+        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>176</v>
+        <v>341</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="G34" s="2">
         <v>33</v>
@@ -23738,20 +23675,20 @@
         <v>34</v>
       </c>
       <c r="B35" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" s="4" t="str">
         <f>IF((B35=""),"",VLOOKUP(B35,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>177</v>
+        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="G35" s="2">
         <v>34</v>
@@ -23762,20 +23699,20 @@
         <v>35</v>
       </c>
       <c r="B36" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C36" s="4" t="str">
         <f>IF((B36=""),"",VLOOKUP(B36,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>193</v>
+        <v>Project is Referred to Minister for Exemption - s.16(2)(b)</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="G36" s="2">
         <v>35</v>
@@ -23786,44 +23723,44 @@
         <v>36</v>
       </c>
       <c r="B37" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C37" s="4" t="str">
         <f>IF((B37=""),"",VLOOKUP(B37,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>193</v>
+        <v>184</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="G37" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="43" customFormat="1">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="15">
-        <v>14</v>
-      </c>
-      <c r="C38" s="43" t="str">
+      <c r="B38" s="3">
+        <v>17</v>
+      </c>
+      <c r="C38" s="4" t="str">
         <f>IF((B38=""),"",VLOOKUP(B38,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D38" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>356</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D38" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="G38" s="2">
         <v>37</v>
@@ -23834,20 +23771,20 @@
         <v>38</v>
       </c>
       <c r="B39" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C39" s="4" t="str">
         <f>IF((B39=""),"",VLOOKUP(B39,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>189</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>341</v>
+        <v>174</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="G39" s="2">
         <v>38</v>
@@ -23858,20 +23795,20 @@
         <v>39</v>
       </c>
       <c r="B40" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C40" s="4" t="str">
         <f>IF((B40=""),"",VLOOKUP(B40,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>191</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="G40" s="2">
         <v>39</v>
@@ -23882,20 +23819,20 @@
         <v>40</v>
       </c>
       <c r="B41" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C41" s="4" t="str">
         <f>IF((B41=""),"",VLOOKUP(B41,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Project is Referred to Minister for Exemption - s.16(2)(b)</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>169</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G41" s="2">
         <v>40</v>
@@ -23906,20 +23843,20 @@
         <v>41</v>
       </c>
       <c r="B42" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C42" s="4" t="str">
         <f>IF((B42=""),"",VLOOKUP(B42,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>184</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D42" t="s">
+        <v>171</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G42" s="2">
         <v>41</v>
@@ -23930,20 +23867,20 @@
         <v>42</v>
       </c>
       <c r="B43" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C43" s="4" t="str">
         <f>IF((B43=""),"",VLOOKUP(B43,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D43" t="s">
-        <v>171</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G43" s="2">
         <v>42</v>
@@ -23954,20 +23891,20 @@
         <v>43</v>
       </c>
       <c r="B44" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C44" s="4" t="str">
         <f>IF((B44=""),"",VLOOKUP(B44,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G44" s="2">
         <v>43</v>
@@ -23978,20 +23915,20 @@
         <v>44</v>
       </c>
       <c r="B45" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C45" s="4" t="str">
         <f>IF((B45=""),"",VLOOKUP(B45,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G45" s="2">
         <v>44</v>
@@ -24002,20 +23939,20 @@
         <v>45</v>
       </c>
       <c r="B46" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C46" s="4" t="str">
         <f>IF((B46=""),"",VLOOKUP(B46,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>178</v>
+        <v>Last Day of Exemption Request: Readiness Decision PHASE</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>194</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="G46" s="2">
         <v>45</v>
@@ -24026,20 +23963,20 @@
         <v>46</v>
       </c>
       <c r="B47" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C47" s="4" t="str">
         <f>IF((B47=""),"",VLOOKUP(B47,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>193</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D47" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="G47" s="2">
         <v>46</v>
@@ -24050,20 +23987,20 @@
         <v>47</v>
       </c>
       <c r="B48" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C48" s="4" t="str">
         <f>IF((B48=""),"",VLOOKUP(B48,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>Proponent Withdraws Project from the Exemption Request Process</v>
       </c>
-      <c r="D48" t="s">
-        <v>171</v>
+      <c r="D48" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G48" s="2">
         <v>47</v>
@@ -24074,20 +24011,20 @@
         <v>48</v>
       </c>
       <c r="B49" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C49" s="4" t="str">
         <f>IF((B49=""),"",VLOOKUP(B49,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>Proponent Withdraws Project from the Exemption Request Process</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G49" s="2">
         <v>48</v>
@@ -24098,20 +24035,20 @@
         <v>49</v>
       </c>
       <c r="B50" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C50" s="4" t="str">
         <f>IF((B50=""),"",VLOOKUP(B50,Outcomes!$A$2:$D$30,4,FALSE))</f>
         <v>Proponent Withdraws Project from the Exemption Request Process</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G50" s="2">
         <v>49</v>
@@ -24122,20 +24059,20 @@
         <v>50</v>
       </c>
       <c r="B51" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C51" s="4" t="str">
         <f>IF((B51=""),"",VLOOKUP(B51,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>177</v>
+        <v>Project is Exempt from Requiring an EAC</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="G51" s="2">
         <v>50</v>
@@ -24146,20 +24083,20 @@
         <v>51</v>
       </c>
       <c r="B52" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C52" s="4" t="str">
         <f>IF((B52=""),"",VLOOKUP(B52,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>183</v>
+        <v>Project is Exempt from Requiring an EAC</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="G52" s="2">
         <v>51</v>
@@ -24170,20 +24107,20 @@
         <v>52</v>
       </c>
       <c r="B53" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C53" s="4" t="str">
         <f>IF((B53=""),"",VLOOKUP(B53,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Last Day of Exemption Request: Readiness Decision PHASE</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>194</v>
+        <v>Refer the Project to the CEAO for Further Decision</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53" s="42" t="s">
+        <v>198</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="G53" s="2">
         <v>52</v>
@@ -24194,20 +24131,20 @@
         <v>53</v>
       </c>
       <c r="B54" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C54" s="4" t="str">
         <f>IF((B54=""),"",VLOOKUP(B54,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D54" t="s">
-        <v>171</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>172</v>
+        <v>Refer the Project to the CEAO for Further Decision</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>199</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="G54" s="2">
         <v>53</v>
@@ -24218,20 +24155,20 @@
         <v>54</v>
       </c>
       <c r="B55" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C55" s="4" t="str">
         <f>IF((B55=""),"",VLOOKUP(B55,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>173</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>184</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G55" s="2">
         <v>54</v>
@@ -24242,20 +24179,20 @@
         <v>55</v>
       </c>
       <c r="B56" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C56" s="4" t="str">
         <f>IF((B56=""),"",VLOOKUP(B56,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>175</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D56" t="s">
+        <v>171</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G56" s="2">
         <v>55</v>
@@ -24266,20 +24203,20 @@
         <v>56</v>
       </c>
       <c r="B57" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C57" s="4" t="str">
         <f>IF((B57=""),"",VLOOKUP(B57,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G57" s="2">
         <v>56</v>
@@ -24290,20 +24227,20 @@
         <v>57</v>
       </c>
       <c r="B58" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C58" s="4" t="str">
         <f>IF((B58=""),"",VLOOKUP(B58,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>193</v>
+        <v>175</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="G58" s="2">
         <v>57</v>
@@ -24314,20 +24251,20 @@
         <v>58</v>
       </c>
       <c r="B59" s="3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C59" s="4" t="str">
         <f>IF((B59=""),"",VLOOKUP(B59,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Project is Exempt from Requiring an EAC</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>175</v>
+        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G59" s="2">
         <v>58</v>
@@ -24338,20 +24275,20 @@
         <v>59</v>
       </c>
       <c r="B60" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C60" s="4" t="str">
         <f>IF((B60=""),"",VLOOKUP(B60,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Project is Exempt from Requiring an EAC</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>197</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D60" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="G60" s="2">
         <v>59</v>
@@ -24362,20 +24299,20 @@
         <v>60</v>
       </c>
       <c r="B61" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C61" s="4" t="str">
         <f>IF((B61=""),"",VLOOKUP(B61,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Refer the Project to the CEAO for Further Decision</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E61" s="42" t="s">
-        <v>198</v>
+        <v>173</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="G61" s="2">
         <v>60</v>
@@ -24386,20 +24323,20 @@
         <v>61</v>
       </c>
       <c r="B62" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C62" s="4" t="str">
         <f>IF((B62=""),"",VLOOKUP(B62,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Refer the Project to the CEAO for Further Decision</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E62" s="30" t="s">
-        <v>199</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G62" s="2">
         <v>61</v>
@@ -24410,20 +24347,20 @@
         <v>62</v>
       </c>
       <c r="B63" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C63" s="4" t="str">
         <f>IF((B63=""),"",VLOOKUP(B63,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>184</v>
+        <v>Proponent Withdraws Project from the Exemption Request Process</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G63" s="2">
         <v>62</v>
@@ -24434,20 +24371,20 @@
         <v>63</v>
       </c>
       <c r="B64" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C64" s="4" t="str">
         <f>IF((B64=""),"",VLOOKUP(B64,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D64" t="s">
-        <v>171</v>
+        <v>CEAO Requires the Proponent to Submit a Revised Exemption Request DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>325</v>
+        <v>341</v>
+      </c>
+      <c r="F64" s="42" t="s">
+        <v>342</v>
       </c>
       <c r="G64" s="2">
         <v>63</v>
@@ -24458,20 +24395,20 @@
         <v>64</v>
       </c>
       <c r="B65" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C65" s="4" t="str">
         <f>IF((B65=""),"",VLOOKUP(B65,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>173</v>
+        <v>CEAO Requires the Proponent to Submit a Revised Exemption Request DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>326</v>
+        <v>192</v>
+      </c>
+      <c r="F65" s="41" t="s">
+        <v>343</v>
       </c>
       <c r="G65" s="2">
         <v>64</v>
@@ -24482,20 +24419,20 @@
         <v>65</v>
       </c>
       <c r="B66" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C66" s="4" t="str">
         <f>IF((B66=""),"",VLOOKUP(B66,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>327</v>
+        <v>CEAO Requires the Proponent to Submit a Revised EAC Assessment DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>348</v>
       </c>
       <c r="G66" s="2">
         <v>65</v>
@@ -24506,20 +24443,20 @@
         <v>66</v>
       </c>
       <c r="B67" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C67" s="4" t="str">
         <f>IF((B67=""),"",VLOOKUP(B67,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>178</v>
+        <v>CEAO Requires the Proponent to Submit a Revised EAC Assessment DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" s="42" t="s">
+        <v>190</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="G67" s="2">
         <v>66</v>
@@ -24530,44 +24467,44 @@
         <v>67</v>
       </c>
       <c r="B68" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C68" s="4" t="str">
         <f>IF((B68=""),"",VLOOKUP(B68,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Exemption Request is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>193</v>
+        <v>CEAO Requires the Proponent to Submit a Revised EAC Assessment DPD - s.16(2)(a)</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="G68" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" s="37" customFormat="1">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C69" s="4" t="str">
         <f>IF((B69=""),"",VLOOKUP(B69,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D69" t="s">
-        <v>171</v>
+        <v>Project Moves to EAC Assessment: Process Planning PHASE - s.18(1)(a)</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="G69" s="2">
         <v>68</v>
@@ -24578,20 +24515,20 @@
         <v>69</v>
       </c>
       <c r="B70" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C70" s="4" t="str">
         <f>IF((B70=""),"",VLOOKUP(B70,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>174</v>
+        <v>Project Moves to EAC Assessment: Process Planning PHASE - s.18(1)(a)</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="G70" s="2">
         <v>69</v>
@@ -24602,20 +24539,20 @@
         <v>70</v>
       </c>
       <c r="B71" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C71" s="4" t="str">
         <f>IF((B71=""),"",VLOOKUP(B71,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>176</v>
+        <v>Project is Referred to Minister for EAC Assessment: Process Planning - s.18(1)(b)</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>202</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G71" s="2">
         <v>70</v>
@@ -24626,20 +24563,20 @@
         <v>71</v>
       </c>
       <c r="B72" s="3">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C72" s="4" t="str">
-        <f>IF((B72=""),"",VLOOKUP(B72,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>178</v>
+        <f>IF((B72=""),"",VLOOKUP(B72,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>No Federal Involvement triggered for this WORK</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>319</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G72" s="2">
         <v>71</v>
@@ -24650,20 +24587,20 @@
         <v>72</v>
       </c>
       <c r="B73" s="3">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C73" s="4" t="str">
-        <f>IF((B73=""),"",VLOOKUP(B73,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the Exemption Request Process</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>193</v>
+        <f>IF((B73=""),"",VLOOKUP(B73,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>Federal Substitution Request Approved</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>321</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="G73" s="2">
         <v>72</v>
@@ -24674,20 +24611,20 @@
         <v>73</v>
       </c>
       <c r="B74" s="3">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C74" s="4" t="str">
-        <f>IF((B74=""),"",VLOOKUP(B74,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised Exemption Request DPD - s.16(2)(a)</v>
+        <f>IF((B74=""),"",VLOOKUP(B74,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>Other form of Federal Involvement (Coordination, etc.)</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F74" s="42" t="s">
-        <v>342</v>
+        <v>169</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="G74" s="2">
         <v>73</v>
@@ -24698,20 +24635,20 @@
         <v>74</v>
       </c>
       <c r="B75" s="3">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C75" s="4" t="str">
-        <f>IF((B75=""),"",VLOOKUP(B75,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised Exemption Request DPD - s.16(2)(a)</v>
+        <f>IF((B75=""),"",VLOOKUP(B75,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F75" s="41" t="s">
-        <v>343</v>
+        <v>185</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="G75" s="2">
         <v>74</v>
@@ -24722,20 +24659,20 @@
         <v>75</v>
       </c>
       <c r="B76" s="3">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C76" s="4" t="str">
-        <f>IF((B76=""),"",VLOOKUP(B76,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised EAC Assessment DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E76" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="F76" s="30" t="s">
-        <v>348</v>
+        <f>IF((B76=""),"",VLOOKUP(B76,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D76" t="s">
+        <v>171</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="G76" s="2">
         <v>75</v>
@@ -24746,20 +24683,20 @@
         <v>76</v>
       </c>
       <c r="B77" s="3">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C77" s="4" t="str">
-        <f>IF((B77=""),"",VLOOKUP(B77,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised EAC Assessment DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E77" s="42" t="s">
-        <v>190</v>
+        <f>IF((B77=""),"",VLOOKUP(B77,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="G77" s="2">
         <v>76</v>
@@ -24770,44 +24707,44 @@
         <v>77</v>
       </c>
       <c r="B78" s="3">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C78" s="4" t="str">
-        <f>IF((B78=""),"",VLOOKUP(B78,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>CEAO Requires the Proponent to Submit a Revised EAC Assessment DPD - s.16(2)(a)</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>191</v>
+        <f>IF((B78=""),"",VLOOKUP(B78,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="G78" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="37" customFormat="1">
+    <row r="79" spans="1:7">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="3">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C79" s="4" t="str">
-        <f>IF((B79=""),"",VLOOKUP(B79,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Project Moves to EAC Assessment: Process Planning PHASE - s.18(1)(a)</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>182</v>
+        <f>IF((B79=""),"",VLOOKUP(B79,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="G79" s="2">
         <v>78</v>
@@ -24818,20 +24755,20 @@
         <v>79</v>
       </c>
       <c r="B80" s="3">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C80" s="4" t="str">
-        <f>IF((B80=""),"",VLOOKUP(B80,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Project Moves to EAC Assessment: Process Planning PHASE - s.18(1)(a)</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>200</v>
+        <f>IF((B80=""),"",VLOOKUP(B80,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D80" t="s">
+        <v>171</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="G80" s="2">
         <v>79</v>
@@ -24842,20 +24779,20 @@
         <v>80</v>
       </c>
       <c r="B81" s="3">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C81" s="4" t="str">
-        <f>IF((B81=""),"",VLOOKUP(B81,Outcomes!$A$2:$D$30,4,FALSE))</f>
-        <v>Project is Referred to Minister for EAC Assessment: Process Planning - s.18(1)(b)</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>202</v>
+        <f>IF((B81=""),"",VLOOKUP(B81,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G81" s="2">
         <v>80</v>
@@ -24866,20 +24803,20 @@
         <v>81</v>
       </c>
       <c r="B82" s="3">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C82" s="4" t="str">
         <f>IF((B82=""),"",VLOOKUP(B82,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>No Federal Involvement triggered for this WORK</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E82" s="30" t="s">
-        <v>319</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="G82" s="2">
         <v>81</v>
@@ -24890,20 +24827,20 @@
         <v>82</v>
       </c>
       <c r="B83" s="3">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C83" s="4" t="str">
         <f>IF((B83=""),"",VLOOKUP(B83,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Federal Substitution Request Approved</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>321</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G83" s="2">
         <v>82</v>
@@ -24914,20 +24851,20 @@
         <v>83</v>
       </c>
       <c r="B84" s="3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C84" s="4" t="str">
         <f>IF((B84=""),"",VLOOKUP(B84,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Other form of Federal Involvement (Coordination, etc.)</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>169</v>
+        <v>Last Day of EAC Assessment: Process Planning PHASE</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>323</v>
+        <v>330</v>
+      </c>
+      <c r="F84" s="42" t="s">
+        <v>358</v>
       </c>
       <c r="G84" s="2">
         <v>83</v>
@@ -24938,20 +24875,20 @@
         <v>84</v>
       </c>
       <c r="B85" s="3">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C85" s="4" t="str">
         <f>IF((B85=""),"",VLOOKUP(B85,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
+        <v>EAO's Viewpoint is POSITIVE</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G85" s="2">
         <v>84</v>
@@ -24962,20 +24899,20 @@
         <v>85</v>
       </c>
       <c r="B86" s="3">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C86" s="4" t="str">
         <f>IF((B86=""),"",VLOOKUP(B86,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D86" t="s">
-        <v>171</v>
+        <v>EAO's Viewpoint is NEGATIVE</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G86" s="2">
         <v>85</v>
@@ -24986,20 +24923,20 @@
         <v>86</v>
       </c>
       <c r="B87" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C87" s="4" t="str">
         <f>IF((B87=""),"",VLOOKUP(B87,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>173</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G87" s="2">
         <v>86</v>
@@ -25010,20 +24947,20 @@
         <v>87</v>
       </c>
       <c r="B88" s="3">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C88" s="4" t="str">
         <f>IF((B88=""),"",VLOOKUP(B88,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D88" s="9" t="s">
-        <v>175</v>
+      <c r="D88" t="s">
+        <v>171</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G88" s="2">
         <v>87</v>
@@ -25034,20 +24971,20 @@
         <v>88</v>
       </c>
       <c r="B89" s="3">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C89" s="4" t="str">
         <f>IF((B89=""),"",VLOOKUP(B89,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G89" s="2">
         <v>88</v>
@@ -25058,20 +24995,20 @@
         <v>89</v>
       </c>
       <c r="B90" s="3">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C90" s="4" t="str">
         <f>IF((B90=""),"",VLOOKUP(B90,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E90" s="26" t="s">
-        <v>193</v>
+        <v>175</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="G90" s="2">
         <v>89</v>
@@ -25082,20 +25019,20 @@
         <v>90</v>
       </c>
       <c r="B91" s="3">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C91" s="4" t="str">
         <f>IF((B91=""),"",VLOOKUP(B91,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D91" t="s">
-        <v>171</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G91" s="2">
         <v>90</v>
@@ -25106,20 +25043,20 @@
         <v>91</v>
       </c>
       <c r="B92" s="3">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C92" s="4" t="str">
         <f>IF((B92=""),"",VLOOKUP(B92,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D92" s="9" t="s">
-        <v>173</v>
+      <c r="D92" t="s">
+        <v>171</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G92" s="2">
         <v>91</v>
@@ -25130,20 +25067,20 @@
         <v>92</v>
       </c>
       <c r="B93" s="3">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C93" s="4" t="str">
         <f>IF((B93=""),"",VLOOKUP(B93,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G93" s="2">
         <v>92</v>
@@ -25154,20 +25091,20 @@
         <v>93</v>
       </c>
       <c r="B94" s="3">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C94" s="4" t="str">
         <f>IF((B94=""),"",VLOOKUP(B94,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G94" s="2">
         <v>93</v>
@@ -25178,20 +25115,20 @@
         <v>94</v>
       </c>
       <c r="B95" s="3">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C95" s="4" t="str">
         <f>IF((B95=""),"",VLOOKUP(B95,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E95" s="26" t="s">
-        <v>193</v>
+        <v>177</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="G95" s="2">
         <v>94</v>
@@ -25202,20 +25139,20 @@
         <v>95</v>
       </c>
       <c r="B96" s="3">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C96" s="4" t="str">
         <f>IF((B96=""),"",VLOOKUP(B96,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Last Day of EAC Assessment: Process Planning PHASE</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E96" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="F96" s="42" t="s">
-        <v>358</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="G96" s="2">
         <v>95</v>
@@ -25226,20 +25163,20 @@
         <v>96</v>
       </c>
       <c r="B97" s="3">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C97" s="4" t="str">
         <f>IF((B97=""),"",VLOOKUP(B97,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is POSITIVE</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>169</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D97" t="s">
+        <v>171</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G97" s="2">
         <v>96</v>
@@ -25250,20 +25187,20 @@
         <v>97</v>
       </c>
       <c r="B98" s="3">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C98" s="4" t="str">
         <f>IF((B98=""),"",VLOOKUP(B98,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is NEGATIVE</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>169</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G98" s="2">
         <v>97</v>
@@ -25274,20 +25211,20 @@
         <v>98</v>
       </c>
       <c r="B99" s="3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C99" s="4" t="str">
         <f>IF((B99=""),"",VLOOKUP(B99,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>184</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G99" s="2">
         <v>98</v>
@@ -25298,20 +25235,20 @@
         <v>99</v>
       </c>
       <c r="B100" s="3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C100" s="4" t="str">
         <f>IF((B100=""),"",VLOOKUP(B100,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D100" t="s">
-        <v>171</v>
+      <c r="D100" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G100" s="2">
         <v>99</v>
@@ -25322,20 +25259,20 @@
         <v>100</v>
       </c>
       <c r="B101" s="3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C101" s="4" t="str">
         <f>IF((B101=""),"",VLOOKUP(B101,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>173</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D101" t="s">
+        <v>171</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G101" s="2">
         <v>100</v>
@@ -25346,20 +25283,20 @@
         <v>101</v>
       </c>
       <c r="B102" s="3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C102" s="4" t="str">
         <f>IF((B102=""),"",VLOOKUP(B102,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G102" s="2">
         <v>101</v>
@@ -25370,20 +25307,20 @@
         <v>102</v>
       </c>
       <c r="B103" s="3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C103" s="4" t="str">
         <f>IF((B103=""),"",VLOOKUP(B103,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G103" s="2">
         <v>102</v>
@@ -25394,20 +25331,20 @@
         <v>103</v>
       </c>
       <c r="B104" s="3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C104" s="4" t="str">
         <f>IF((B104=""),"",VLOOKUP(B104,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>193</v>
+        <v>177</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="G104" s="2">
         <v>103</v>
@@ -25418,20 +25355,20 @@
         <v>104</v>
       </c>
       <c r="B105" s="3">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C105" s="4" t="str">
         <f>IF((B105=""),"",VLOOKUP(B105,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D105" t="s">
-        <v>171</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>325</v>
+        <v>Last Day of EAC Assessment: EAC Application Review PHASE</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="F105" s="42" t="s">
+        <v>359</v>
       </c>
       <c r="G105" s="2">
         <v>104</v>
@@ -25442,20 +25379,20 @@
         <v>105</v>
       </c>
       <c r="B106" s="3">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C106" s="4" t="str">
         <f>IF((B106=""),"",VLOOKUP(B106,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>173</v>
+        <v>EAO's Viewpoint is POSITIVE</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G106" s="2">
         <v>105</v>
@@ -25466,20 +25403,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="3">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C107" s="4" t="str">
         <f>IF((B107=""),"",VLOOKUP(B107,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>175</v>
+        <v>EAO's Viewpoint is NEGATIVE</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G107" s="2">
         <v>106</v>
@@ -25490,20 +25427,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="3">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C108" s="4" t="str">
         <f>IF((B108=""),"",VLOOKUP(B108,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>177</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G108" s="2">
         <v>107</v>
@@ -25514,20 +25451,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="3">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C109" s="4" t="str">
         <f>IF((B109=""),"",VLOOKUP(B109,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E109" s="26" t="s">
-        <v>193</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D109" t="s">
+        <v>171</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="G109" s="2">
         <v>108</v>
@@ -25538,20 +25475,20 @@
         <v>109</v>
       </c>
       <c r="B110" s="3">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C110" s="4" t="str">
         <f>IF((B110=""),"",VLOOKUP(B110,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>184</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G110" s="2">
         <v>109</v>
@@ -25562,20 +25499,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="3">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C111" s="4" t="str">
         <f>IF((B111=""),"",VLOOKUP(B111,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
-      <c r="D111" t="s">
-        <v>171</v>
+      <c r="D111" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G111" s="2">
         <v>110</v>
@@ -25586,20 +25523,20 @@
         <v>111</v>
       </c>
       <c r="B112" s="3">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C112" s="4" t="str">
         <f>IF((B112=""),"",VLOOKUP(B112,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G112" s="2">
         <v>111</v>
@@ -25610,20 +25547,20 @@
         <v>112</v>
       </c>
       <c r="B113" s="3">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C113" s="4" t="str">
         <f>IF((B113=""),"",VLOOKUP(B113,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>175</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+      </c>
+      <c r="D113" t="s">
+        <v>171</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G113" s="2">
         <v>112</v>
@@ -25634,20 +25571,20 @@
         <v>113</v>
       </c>
       <c r="B114" s="3">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C114" s="4" t="str">
         <f>IF((B114=""),"",VLOOKUP(B114,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G114" s="2">
         <v>113</v>
@@ -25658,20 +25595,20 @@
         <v>114</v>
       </c>
       <c r="B115" s="3">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C115" s="4" t="str">
         <f>IF((B115=""),"",VLOOKUP(B115,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E115" s="26" t="s">
-        <v>193</v>
+        <v>175</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="G115" s="2">
         <v>114</v>
@@ -25682,20 +25619,20 @@
         <v>115</v>
       </c>
       <c r="B116" s="3">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C116" s="4" t="str">
         <f>IF((B116=""),"",VLOOKUP(B116,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
         <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
-      <c r="D116" t="s">
-        <v>171</v>
+      <c r="D116" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G116" s="2">
         <v>115</v>
@@ -25706,20 +25643,20 @@
         <v>116</v>
       </c>
       <c r="B117" s="3">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C117" s="4" t="str">
         <f>IF((B117=""),"",VLOOKUP(B117,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>326</v>
+        <v>Revised EAC Application Sufficient to Proceed</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E117" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="F117" s="42" t="s">
+        <v>360</v>
       </c>
       <c r="G117" s="2">
         <v>116</v>
@@ -25730,20 +25667,20 @@
         <v>117</v>
       </c>
       <c r="B118" s="3">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C118" s="4" t="str">
         <f>IF((B118=""),"",VLOOKUP(B118,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
+        <v>Proponent must provide an updated Revised EAC Application</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
+      </c>
+      <c r="E118" s="30" t="s">
+        <v>333</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="G118" s="2">
         <v>117</v>
@@ -25754,20 +25691,20 @@
         <v>118</v>
       </c>
       <c r="B119" s="3">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C119" s="4" t="str">
         <f>IF((B119=""),"",VLOOKUP(B119,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>178</v>
+        <v>Proponent must provide an updated Revised EAC Application</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E119" s="30" t="s">
+        <v>334</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="G119" s="2">
         <v>118</v>
@@ -25778,20 +25715,20 @@
         <v>119</v>
       </c>
       <c r="B120" s="3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C120" s="4" t="str">
         <f>IF((B120=""),"",VLOOKUP(B120,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E120" s="26" t="s">
-        <v>193</v>
+        <v>A Matter has been Referred for Dispute Resolution</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="G120" s="2">
         <v>119</v>
@@ -25802,20 +25739,20 @@
         <v>120</v>
       </c>
       <c r="B121" s="3">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C121" s="4" t="str">
         <f>IF((B121=""),"",VLOOKUP(B121,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Last Day of EAC Assessment: EAC Application Review PHASE</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E121" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="F121" s="42" t="s">
-        <v>359</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D121" t="s">
+        <v>171</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="G121" s="2">
         <v>120</v>
@@ -25826,20 +25763,20 @@
         <v>121</v>
       </c>
       <c r="B122" s="3">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C122" s="4" t="str">
         <f>IF((B122=""),"",VLOOKUP(B122,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is POSITIVE</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>169</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G122" s="2">
         <v>121</v>
@@ -25850,20 +25787,20 @@
         <v>122</v>
       </c>
       <c r="B123" s="3">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C123" s="4" t="str">
         <f>IF((B123=""),"",VLOOKUP(B123,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAO's Viewpoint is NEGATIVE</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>169</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G123" s="2">
         <v>122</v>
@@ -25874,20 +25811,20 @@
         <v>123</v>
       </c>
       <c r="B124" s="3">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C124" s="4" t="str">
         <f>IF((B124=""),"",VLOOKUP(B124,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>184</v>
+        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G124" s="2">
         <v>123</v>
@@ -25898,11 +25835,11 @@
         <v>124</v>
       </c>
       <c r="B125" s="3">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C125" s="4" t="str">
         <f>IF((B125=""),"",VLOOKUP(B125,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D125" t="s">
         <v>171</v>
@@ -25922,11 +25859,11 @@
         <v>125</v>
       </c>
       <c r="B126" s="3">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C126" s="4" t="str">
         <f>IF((B126=""),"",VLOOKUP(B126,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>173</v>
@@ -25946,20 +25883,20 @@
         <v>126</v>
       </c>
       <c r="B127" s="3">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C127" s="4" t="str">
         <f>IF((B127=""),"",VLOOKUP(B127,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>175</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G127" s="2">
         <v>126</v>
@@ -25970,11 +25907,11 @@
         <v>127</v>
       </c>
       <c r="B128" s="3">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C128" s="4" t="str">
         <f>IF((B128=""),"",VLOOKUP(B128,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
+        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>177</v>
@@ -25994,20 +25931,20 @@
         <v>128</v>
       </c>
       <c r="B129" s="3">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C129" s="4" t="str">
         <f>IF((B129=""),"",VLOOKUP(B129,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E129" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>382</v>
+        <v>Last Day of EAC Assessment: Effects Assessment PHASE</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E129" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="F129" s="42" t="s">
+        <v>363</v>
       </c>
       <c r="G129" s="2">
         <v>128</v>
@@ -26018,7 +25955,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="3">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C130" s="4" t="str">
         <f>IF((B130=""),"",VLOOKUP(B130,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
@@ -26042,7 +25979,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C131" s="4" t="str">
         <f>IF((B131=""),"",VLOOKUP(B131,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
@@ -26066,7 +26003,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="3">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C132" s="4" t="str">
         <f>IF((B132=""),"",VLOOKUP(B132,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
@@ -26090,7 +26027,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C133" s="4" t="str">
         <f>IF((B133=""),"",VLOOKUP(B133,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
@@ -26114,20 +26051,20 @@
         <v>133</v>
       </c>
       <c r="B134" s="3">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C134" s="4" t="str">
         <f>IF((B134=""),"",VLOOKUP(B134,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E134" s="26" t="s">
-        <v>193</v>
+        <v>Environmental Assessment Certificate GRANTED</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="G134" s="2">
         <v>133</v>
@@ -26138,20 +26075,20 @@
         <v>134</v>
       </c>
       <c r="B135" s="3">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C135" s="4" t="str">
         <f>IF((B135=""),"",VLOOKUP(B135,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Revised EAC Application Sufficient to Proceed</v>
+        <v>Environmental Assessment Certificate GRANTED</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E135" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="F135" s="42" t="s">
-        <v>360</v>
+        <v>197</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="G135" s="2">
         <v>134</v>
@@ -26162,20 +26099,20 @@
         <v>135</v>
       </c>
       <c r="B136" s="3">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C136" s="4" t="str">
         <f>IF((B136=""),"",VLOOKUP(B136,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent must provide an updated Revised EAC Application</v>
+        <v>Environmental Assessment Certificate REFUSED</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E136" s="30" t="s">
-        <v>333</v>
+        <v>175</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="G136" s="2">
         <v>135</v>
@@ -26186,531 +26123,27 @@
         <v>136</v>
       </c>
       <c r="B137" s="3">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C137" s="4" t="str">
         <f>IF((B137=""),"",VLOOKUP(B137,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent must provide an updated Revised EAC Application</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E137" s="30" t="s">
-        <v>334</v>
+        <v>Environmental Assessment Certificate REFUSED</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="G137" s="2">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="2">
-        <v>137</v>
-      </c>
-      <c r="B138" s="3">
-        <v>59</v>
-      </c>
-      <c r="C138" s="4" t="str">
-        <f>IF((B138=""),"",VLOOKUP(B138,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>A Matter has been Referred for Dispute Resolution</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G138" s="2">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="2">
-        <v>138</v>
-      </c>
-      <c r="B139" s="3">
-        <v>60</v>
-      </c>
-      <c r="C139" s="4" t="str">
-        <f>IF((B139=""),"",VLOOKUP(B139,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D139" t="s">
-        <v>171</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G139" s="2">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="2">
-        <v>139</v>
-      </c>
-      <c r="B140" s="3">
-        <v>60</v>
-      </c>
-      <c r="C140" s="4" t="str">
-        <f>IF((B140=""),"",VLOOKUP(B140,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G140" s="2">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="2">
-        <v>140</v>
-      </c>
-      <c r="B141" s="3">
-        <v>60</v>
-      </c>
-      <c r="C141" s="4" t="str">
-        <f>IF((B141=""),"",VLOOKUP(B141,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G141" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="2">
-        <v>141</v>
-      </c>
-      <c r="B142" s="3">
-        <v>60</v>
-      </c>
-      <c r="C142" s="4" t="str">
-        <f>IF((B142=""),"",VLOOKUP(B142,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G142" s="2">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="2">
-        <v>142</v>
-      </c>
-      <c r="B143" s="3">
-        <v>60</v>
-      </c>
-      <c r="C143" s="4" t="str">
-        <f>IF((B143=""),"",VLOOKUP(B143,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>EAC Assessment is Terminated under s.39(d) of EA Act (2018)</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E143" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G143" s="2">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="2">
-        <v>143</v>
-      </c>
-      <c r="B144" s="3">
-        <v>61</v>
-      </c>
-      <c r="C144" s="4" t="str">
-        <f>IF((B144=""),"",VLOOKUP(B144,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D144" t="s">
-        <v>171</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G144" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="2">
-        <v>144</v>
-      </c>
-      <c r="B145" s="3">
-        <v>61</v>
-      </c>
-      <c r="C145" s="4" t="str">
-        <f>IF((B145=""),"",VLOOKUP(B145,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G145" s="2">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="2">
-        <v>145</v>
-      </c>
-      <c r="B146" s="3">
-        <v>61</v>
-      </c>
-      <c r="C146" s="4" t="str">
-        <f>IF((B146=""),"",VLOOKUP(B146,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G146" s="2">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="2">
-        <v>146</v>
-      </c>
-      <c r="B147" s="3">
-        <v>61</v>
-      </c>
-      <c r="C147" s="4" t="str">
-        <f>IF((B147=""),"",VLOOKUP(B147,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D147" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G147" s="2">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="2">
-        <v>147</v>
-      </c>
-      <c r="B148" s="3">
-        <v>61</v>
-      </c>
-      <c r="C148" s="4" t="str">
-        <f>IF((B148=""),"",VLOOKUP(B148,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E148" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G148" s="2">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="2">
-        <v>148</v>
-      </c>
-      <c r="B149" s="3">
-        <v>62</v>
-      </c>
-      <c r="C149" s="4" t="str">
-        <f>IF((B149=""),"",VLOOKUP(B149,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Last Day of EAC Assessment: Effects Assessment PHASE</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E149" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="F149" s="42" t="s">
-        <v>363</v>
-      </c>
-      <c r="G149" s="2">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="2">
-        <v>149</v>
-      </c>
-      <c r="B150" s="3">
-        <v>63</v>
-      </c>
-      <c r="C150" s="4" t="str">
-        <f>IF((B150=""),"",VLOOKUP(B150,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D150" t="s">
-        <v>171</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G150" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="2">
-        <v>150</v>
-      </c>
-      <c r="B151" s="3">
-        <v>63</v>
-      </c>
-      <c r="C151" s="4" t="str">
-        <f>IF((B151=""),"",VLOOKUP(B151,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D151" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G151" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="2">
-        <v>151</v>
-      </c>
-      <c r="B152" s="3">
-        <v>63</v>
-      </c>
-      <c r="C152" s="4" t="str">
-        <f>IF((B152=""),"",VLOOKUP(B152,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G152" s="2">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="2">
-        <v>152</v>
-      </c>
-      <c r="B153" s="3">
-        <v>63</v>
-      </c>
-      <c r="C153" s="4" t="str">
-        <f>IF((B153=""),"",VLOOKUP(B153,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D153" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G153" s="2">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="2">
-        <v>153</v>
-      </c>
-      <c r="B154" s="3">
-        <v>63</v>
-      </c>
-      <c r="C154" s="4" t="str">
-        <f>IF((B154=""),"",VLOOKUP(B154,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Proponent Withdraws Project from the EAC Assessment Process</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E154" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="G154" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="2">
-        <v>154</v>
-      </c>
-      <c r="B155" s="3">
-        <v>64</v>
-      </c>
-      <c r="C155" s="4" t="str">
-        <f>IF((B155=""),"",VLOOKUP(B155,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Environmental Assessment Certificate GRANTED</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G155" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="2">
-        <v>155</v>
-      </c>
-      <c r="B156" s="3">
-        <v>64</v>
-      </c>
-      <c r="C156" s="4" t="str">
-        <f>IF((B156=""),"",VLOOKUP(B156,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Environmental Assessment Certificate GRANTED</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E156" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G156" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="2">
-        <v>156</v>
-      </c>
-      <c r="B157" s="3">
-        <v>65</v>
-      </c>
-      <c r="C157" s="4" t="str">
-        <f>IF((B157=""),"",VLOOKUP(B157,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Environmental Assessment Certificate REFUSED</v>
-      </c>
-      <c r="D157" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E157" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G157" s="2">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="2">
-        <v>157</v>
-      </c>
-      <c r="B158" s="3">
-        <v>65</v>
-      </c>
-      <c r="C158" s="4" t="str">
-        <f>IF((B158=""),"",VLOOKUP(B158,[1]Outcomes!$A$2:$D$66,4,FALSE))</f>
-        <v>Environmental Assessment Certificate REFUSED</v>
-      </c>
-      <c r="D158" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G158" s="2">
-        <v>157</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G158" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <autoFilter ref="A1:G137" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -26720,13 +26153,13 @@
           <x14:formula1>
             <xm:f>Lookups!$U$3:$U$16</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D58 D63:D81 D90 D95 D104 D109 D115 D120 D129 D134 D143 D148 D154</xm:sqref>
+          <xm:sqref>D2:D50 D55:D71</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Outcomes!$A$2:$A$30</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B81</xm:sqref>
+          <xm:sqref>B2:B71</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -28406,17 +27839,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2C1F259FB5F1743B0AABDE6E19F3587" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="887a673b2990ad08cbc7da39ce2412c6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9da97c54-3012-49fd-8896-0db67528b2a3" xmlns:ns3="a10d9883-6879-4486-9776-c67b50dca88e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e318ef65ff943bae84f18b0edea6bb11" ns2:_="" ns3:_="">
     <xsd:import namespace="9da97c54-3012-49fd-8896-0db67528b2a3"/>
@@ -28645,6 +28067,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -28655,17 +28088,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1383CF79-2DB2-40C6-9ED2-5A25DF7BC797}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
-    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21ADD561-5989-478E-9183-7F2CBAD25CE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28684,6 +28106,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1383CF79-2DB2-40C6-9ED2-5A25DF7BC797}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
+    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D293B7-B48B-419C-B420-25F67C616F6F}">
   <ds:schemaRefs>

--- a/epictrack-api/src/api/templates/event_templates/exemption_request/002_Exemption_Request.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/exemption_request/002_Exemption_Request.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\exemption_request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DADDD3-D662-4557-A9C5-983E738B3BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176E3D56-588A-4FB9-B05A-AEA15EA1295B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phases" sheetId="1" r:id="rId1"/>
@@ -1465,7 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -8587,11 +8587,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A75" sqref="A75:XFD140"/>
+      <selection pane="bottomRight" activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -8881,7 +8881,7 @@
         <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>185</v>
@@ -9481,7 +9481,7 @@
         <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>185</v>
@@ -9913,7 +9913,7 @@
         <v>A Matter has been Referred for Dispute Resolution</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>185</v>
@@ -12549,6 +12549,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2C1F259FB5F1743B0AABDE6E19F3587" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="887a673b2990ad08cbc7da39ce2412c6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9da97c54-3012-49fd-8896-0db67528b2a3" xmlns:ns3="a10d9883-6879-4486-9776-c67b50dca88e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e318ef65ff943bae84f18b0edea6bb11" ns2:_="" ns3:_="">
     <xsd:import namespace="9da97c54-3012-49fd-8896-0db67528b2a3"/>
@@ -12777,15 +12786,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1383CF79-2DB2-40C6-9ED2-5A25DF7BC797}">
   <ds:schemaRefs>
@@ -12798,6 +12798,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D293B7-B48B-419C-B420-25F67C616F6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21ADD561-5989-478E-9183-7F2CBAD25CE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12814,12 +12822,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D293B7-B48B-419C-B420-25F67C616F6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>